--- a/NUWM.Servers.Core.Calc/docs/Calc2019ref.xlsx
+++ b/NUWM.Servers.Core.Calc/docs/Calc2019ref.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxRev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxRev\Documents\Visual Studio 2019\Projects\[OK] NUWM.Servers.X\NUWM.Servers.Core.Calc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{725E95CB-7A5F-4BB3-ADC9-E72ED747B668}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F76E6C-632B-490C-A7D4-4D2FF894F578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="2370" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sdf" sheetId="1" r:id="rId1"/>
+    <sheet name="Source" sheetId="1" r:id="rId1"/>
+    <sheet name="ConvertOut" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -301,9 +312,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0,000"/>
+    <numFmt numFmtId="164" formatCode="0,000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -786,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% – колірна тема 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1141,19 +1152,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15.1</v>
       </c>
@@ -1216,55 +1228,8 @@
       <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>INDEX(A$4:A4135,$L4*3+1)</f>
-        <v>15.1</v>
-      </c>
-      <c r="N4" t="str">
-        <f>INDEX(B$4:B4135,$L4*3+1)</f>
-        <v>Професійна освіта</v>
-      </c>
-      <c r="O4" t="str">
-        <f>INDEX(C$4:C4135,$L4*3+1)</f>
-        <v>(Комп`ютерні технології)</v>
-      </c>
-      <c r="P4" t="str">
-        <f>INDEX(D$4:D4135,$L4*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q4" t="str">
-        <f>INDEX(E$4:E4135,$L4*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R4" t="str">
-        <f>INDEX(F$4:F4135,$L4*3+1)</f>
-        <v>3.Фізика або іноземна мова</v>
-      </c>
-      <c r="S4" t="str">
-        <f>INDEX(G$4:G4135,$L4*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T4" t="str">
-        <f>INDEX(H$4:H4135,$L4*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="U4" t="str">
-        <f>INDEX(I$4:I4135,$L4*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="V4">
-        <f>INDEX(J$4:J4135,$L4*3+1)</f>
-        <v>118.346</v>
-      </c>
-      <c r="W4" t="str">
-        <f>INDEX(K$4:K4135,$L4*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1287,55 +1252,8 @@
         <v>0</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f>INDEX(A$4:A4136,$L5*3+1)</f>
-        <v>29</v>
-      </c>
-      <c r="N5" t="str">
-        <f>INDEX(B$4:B4136,$L5*3+1)</f>
-        <v>Інформаційна, бібліотечна та архівна справа</v>
-      </c>
-      <c r="O5">
-        <f>INDEX(C$4:C4136,$L5*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" t="str">
-        <f>INDEX(D$4:D4136,$L5*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q5" t="str">
-        <f>INDEX(E$4:E4136,$L5*3+1)</f>
-        <v xml:space="preserve">2. Історія України </v>
-      </c>
-      <c r="R5" t="str">
-        <f>INDEX(F$4:F4136,$L5*3+1)</f>
-        <v>3. Математика або іноземна мова</v>
-      </c>
-      <c r="S5" t="str">
-        <f>INDEX(G$4:G4136,$L5*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="T5" t="str">
-        <f>INDEX(H$4:H4136,$L5*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="U5" t="str">
-        <f>INDEX(I$4:I4136,$L5*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V5">
-        <f>INDEX(J$4:J4136,$L5*3+1)</f>
-        <v>169.89699999999999</v>
-      </c>
-      <c r="W5" t="str">
-        <f>INDEX(K$4:K4136,$L5*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>13</v>
       </c>
@@ -1355,55 +1273,8 @@
         <v>0</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <f>INDEX(A$4:A4137,$L6*3+1)</f>
-        <v>31</v>
-      </c>
-      <c r="N6" t="str">
-        <f>INDEX(B$4:B4137,$L6*3+1)</f>
-        <v>Релігієзнавство</v>
-      </c>
-      <c r="O6">
-        <f>INDEX(C$4:C4137,$L6*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" t="str">
-        <f>INDEX(D$4:D4137,$L6*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q6" t="str">
-        <f>INDEX(E$4:E4137,$L6*3+1)</f>
-        <v>2. Історія України</v>
-      </c>
-      <c r="R6" t="str">
-        <f>INDEX(F$4:F4137,$L6*3+1)</f>
-        <v>3. Математика або іноземна мова</v>
-      </c>
-      <c r="S6" t="str">
-        <f>INDEX(G$4:G4137,$L6*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="T6" t="str">
-        <f>INDEX(H$4:H4137,$L6*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U6" t="str">
-        <f>INDEX(I$4:I4137,$L6*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="V6">
-        <f>INDEX(J$4:J4137,$L6*3+1)</f>
-        <v>174.7</v>
-      </c>
-      <c r="W6" t="str">
-        <f>INDEX(K$4:K4137,$L6*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1434,55 +1305,8 @@
       <c r="K7" t="s">
         <v>22</v>
       </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <f>INDEX(A$4:A4138,$L7*3+1)</f>
-        <v>51</v>
-      </c>
-      <c r="N7" t="str">
-        <f>INDEX(B$4:B4138,$L7*3+1)</f>
-        <v>Економіка</v>
-      </c>
-      <c r="O7" t="str">
-        <f>INDEX(C$4:C4138,$L7*3+1)</f>
-        <v>(Бізнес аналітика та управління персоналом і економіка праці)</v>
-      </c>
-      <c r="P7" t="str">
-        <f>INDEX(D$4:D4138,$L7*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q7" t="str">
-        <f>INDEX(E$4:E4138,$L7*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R7" t="str">
-        <f>INDEX(F$4:F4138,$L7*3+1)</f>
-        <v>3. Іноземна мова або географія</v>
-      </c>
-      <c r="S7" t="str">
-        <f>INDEX(G$4:G4138,$L7*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T7" t="str">
-        <f>INDEX(H$4:H4138,$L7*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U7" t="str">
-        <f>INDEX(I$4:I4138,$L7*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V7">
-        <f>INDEX(J$4:J4138,$L7*3+1)</f>
-        <v>181.4</v>
-      </c>
-      <c r="W7" t="str">
-        <f>INDEX(K$4:K4138,$L7*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>18</v>
       </c>
@@ -1502,55 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <f>INDEX(A$4:A4139,$L8*3+1)</f>
-        <v>51</v>
-      </c>
-      <c r="N8" t="str">
-        <f>INDEX(B$4:B4139,$L8*3+1)</f>
-        <v>Економіка</v>
-      </c>
-      <c r="O8" t="str">
-        <f>INDEX(C$4:C4139,$L8*3+1)</f>
-        <v>(Економічна кібернетика)</v>
-      </c>
-      <c r="P8" t="str">
-        <f>INDEX(D$4:D4139,$L8*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q8" t="str">
-        <f>INDEX(E$4:E4139,$L8*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R8" t="str">
-        <f>INDEX(F$4:F4139,$L8*3+1)</f>
-        <v>3. Іноземна мова або географія</v>
-      </c>
-      <c r="S8" t="str">
-        <f>INDEX(G$4:G4139,$L8*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T8" t="str">
-        <f>INDEX(H$4:H4139,$L8*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U8" t="str">
-        <f>INDEX(I$4:I4139,$L8*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V8">
-        <f>INDEX(J$4:J4139,$L8*3+1)</f>
-        <v>181.4</v>
-      </c>
-      <c r="W8" t="str">
-        <f>INDEX(K$4:K4139,$L8*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -1570,55 +1347,8 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <f>INDEX(A$4:A4140,$L9*3+1)</f>
-        <v>53</v>
-      </c>
-      <c r="N9" t="str">
-        <f>INDEX(B$4:B4140,$L9*3+1)</f>
-        <v>Психологія</v>
-      </c>
-      <c r="O9">
-        <f>INDEX(C$4:C4140,$L9*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" t="str">
-        <f>INDEX(D$4:D4140,$L9*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q9" t="str">
-        <f>INDEX(E$4:E4140,$L9*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R9" t="str">
-        <f>INDEX(F$4:F4140,$L9*3+1)</f>
-        <v>3. Іноземна мова або біологія</v>
-      </c>
-      <c r="S9" t="str">
-        <f>INDEX(G$4:G4140,$L9*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T9" t="str">
-        <f>INDEX(H$4:H4140,$L9*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U9" t="str">
-        <f>INDEX(I$4:I4140,$L9*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V9">
-        <f>INDEX(J$4:J4140,$L9*3+1)</f>
-        <v>167.8</v>
-      </c>
-      <c r="W9" t="str">
-        <f>INDEX(K$4:K4140,$L9*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1649,55 +1379,8 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <f>INDEX(A$4:A4141,$L10*3+1)</f>
-        <v>61</v>
-      </c>
-      <c r="N10" t="str">
-        <f>INDEX(B$4:B4141,$L10*3+1)</f>
-        <v>Журналістика</v>
-      </c>
-      <c r="O10">
-        <f>INDEX(C$4:C4141,$L10*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" t="str">
-        <f>INDEX(D$4:D4141,$L10*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q10" t="str">
-        <f>INDEX(E$4:E4141,$L10*3+1)</f>
-        <v>2. Історія України</v>
-      </c>
-      <c r="R10" t="str">
-        <f>INDEX(F$4:F4141,$L10*3+1)</f>
-        <v>3. Математика або іноземна мова</v>
-      </c>
-      <c r="S10" t="str">
-        <f>INDEX(G$4:G4141,$L10*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="T10" t="str">
-        <f>INDEX(H$4:H4141,$L10*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U10" t="str">
-        <f>INDEX(I$4:I4141,$L10*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="V10">
-        <f>INDEX(J$4:J4141,$L10*3+1)</f>
-        <v>186.25200000000001</v>
-      </c>
-      <c r="W10" t="str">
-        <f>INDEX(K$4:K4141,$L10*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>24</v>
       </c>
@@ -1717,55 +1400,8 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <f>INDEX(A$4:A4142,$L11*3+1)</f>
-        <v>71</v>
-      </c>
-      <c r="N11" t="str">
-        <f>INDEX(B$4:B4142,$L11*3+1)</f>
-        <v xml:space="preserve">Облік і оподаткування </v>
-      </c>
-      <c r="O11">
-        <f>INDEX(C$4:C4142,$L11*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" t="str">
-        <f>INDEX(D$4:D4142,$L11*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q11" t="str">
-        <f>INDEX(E$4:E4142,$L11*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R11" t="str">
-        <f>INDEX(F$4:F4142,$L11*3+1)</f>
-        <v>3. Іноземна мова або географія</v>
-      </c>
-      <c r="S11" t="str">
-        <f>INDEX(G$4:G4142,$L11*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T11" t="str">
-        <f>INDEX(H$4:H4142,$L11*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U11" t="str">
-        <f>INDEX(I$4:I4142,$L11*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V11">
-        <f>INDEX(J$4:J4142,$L11*3+1)</f>
-        <v>169.72800000000001</v>
-      </c>
-      <c r="W11" t="str">
-        <f>INDEX(K$4:K4142,$L11*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -1785,55 +1421,8 @@
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <f>INDEX(A$4:A4143,$L12*3+1)</f>
-        <v>72</v>
-      </c>
-      <c r="N12" t="str">
-        <f>INDEX(B$4:B4143,$L12*3+1)</f>
-        <v xml:space="preserve">Фінанси, банківська справа та страхування </v>
-      </c>
-      <c r="O12">
-        <f>INDEX(C$4:C4143,$L12*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" t="str">
-        <f>INDEX(D$4:D4143,$L12*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q12" t="str">
-        <f>INDEX(E$4:E4143,$L12*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R12" t="str">
-        <f>INDEX(F$4:F4143,$L12*3+1)</f>
-        <v>3. Іноземна мова або географія</v>
-      </c>
-      <c r="S12" t="str">
-        <f>INDEX(G$4:G4143,$L12*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T12" t="str">
-        <f>INDEX(H$4:H4143,$L12*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U12" t="str">
-        <f>INDEX(I$4:I4143,$L12*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V12">
-        <f>INDEX(J$4:J4143,$L12*3+1)</f>
-        <v>172.78800000000001</v>
-      </c>
-      <c r="W12" t="str">
-        <f>INDEX(K$4:K4143,$L12*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1867,55 +1456,8 @@
       <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="L13">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <f>INDEX(A$4:A4144,$L13*3+1)</f>
-        <v>73</v>
-      </c>
-      <c r="N13" t="str">
-        <f>INDEX(B$4:B4144,$L13*3+1)</f>
-        <v>Менеджмент</v>
-      </c>
-      <c r="O13">
-        <f>INDEX(C$4:C4144,$L13*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" t="str">
-        <f>INDEX(D$4:D4144,$L13*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q13" t="str">
-        <f>INDEX(E$4:E4144,$L13*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R13" t="str">
-        <f>INDEX(F$4:F4144,$L13*3+1)</f>
-        <v>3. Іноземна мова або географія</v>
-      </c>
-      <c r="S13" t="str">
-        <f>INDEX(G$4:G4144,$L13*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T13" t="str">
-        <f>INDEX(H$4:H4144,$L13*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U13" t="str">
-        <f>INDEX(I$4:I4144,$L13*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V13">
-        <f>INDEX(J$4:J4144,$L13*3+1)</f>
-        <v>176.358</v>
-      </c>
-      <c r="W13" t="str">
-        <f>INDEX(K$4:K4144,$L13*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1938,55 +1480,8 @@
         <v>0</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <f>INDEX(A$4:A4145,$L14*3+1)</f>
-        <v>75</v>
-      </c>
-      <c r="N14" t="str">
-        <f>INDEX(B$4:B4145,$L14*3+1)</f>
-        <v xml:space="preserve">Маркетинг </v>
-      </c>
-      <c r="O14">
-        <f>INDEX(C$4:C4145,$L14*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" t="str">
-        <f>INDEX(D$4:D4145,$L14*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q14" t="str">
-        <f>INDEX(E$4:E4145,$L14*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R14" t="str">
-        <f>INDEX(F$4:F4145,$L14*3+1)</f>
-        <v>3. Іноземна мова або географія</v>
-      </c>
-      <c r="S14" t="str">
-        <f>INDEX(G$4:G4145,$L14*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T14" t="str">
-        <f>INDEX(H$4:H4145,$L14*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U14" t="str">
-        <f>INDEX(I$4:I4145,$L14*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V14">
-        <f>INDEX(J$4:J4145,$L14*3+1)</f>
-        <v>177.88800000000001</v>
-      </c>
-      <c r="W14" t="str">
-        <f>INDEX(K$4:K4145,$L14*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>28</v>
       </c>
@@ -2006,55 +1501,8 @@
         <v>0</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="L15">
-        <v>11</v>
-      </c>
-      <c r="M15">
-        <f>INDEX(A$4:A4146,$L15*3+1)</f>
-        <v>76</v>
-      </c>
-      <c r="N15" t="str">
-        <f>INDEX(B$4:B4146,$L15*3+1)</f>
-        <v xml:space="preserve">Підприємництво, торгівля та біржова діяльність </v>
-      </c>
-      <c r="O15">
-        <f>INDEX(C$4:C4146,$L15*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" t="str">
-        <f>INDEX(D$4:D4146,$L15*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q15" t="str">
-        <f>INDEX(E$4:E4146,$L15*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R15" t="str">
-        <f>INDEX(F$4:F4146,$L15*3+1)</f>
-        <v>3. Іноземна мова або географія</v>
-      </c>
-      <c r="S15" t="str">
-        <f>INDEX(G$4:G4146,$L15*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T15" t="str">
-        <f>INDEX(H$4:H4146,$L15*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U15" t="str">
-        <f>INDEX(I$4:I4146,$L15*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V15">
-        <f>INDEX(J$4:J4146,$L15*3+1)</f>
-        <v>172</v>
-      </c>
-      <c r="W15" t="str">
-        <f>INDEX(K$4:K4146,$L15*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>51</v>
       </c>
@@ -2088,55 +1536,8 @@
       <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <f>INDEX(A$4:A4147,$L16*3+1)</f>
-        <v>81</v>
-      </c>
-      <c r="N16" t="str">
-        <f>INDEX(B$4:B4147,$L16*3+1)</f>
-        <v xml:space="preserve">Право </v>
-      </c>
-      <c r="O16">
-        <f>INDEX(C$4:C4147,$L16*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" t="str">
-        <f>INDEX(D$4:D4147,$L16*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q16" t="str">
-        <f>INDEX(E$4:E4147,$L16*3+1)</f>
-        <v xml:space="preserve">2. Історія України </v>
-      </c>
-      <c r="R16" t="str">
-        <f>INDEX(F$4:F4147,$L16*3+1)</f>
-        <v>3. Математика або іноземна мова</v>
-      </c>
-      <c r="S16" t="str">
-        <f>INDEX(G$4:G4147,$L16*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="T16" t="str">
-        <f>INDEX(H$4:H4147,$L16*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U16" t="str">
-        <f>INDEX(I$4:I4147,$L16*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="V16">
-        <f>INDEX(J$4:J4147,$L16*3+1)</f>
-        <v>182.78399999999999</v>
-      </c>
-      <c r="W16" t="str">
-        <f>INDEX(K$4:K4147,$L16*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -2159,55 +1560,8 @@
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="L17">
-        <v>13</v>
-      </c>
-      <c r="M17">
-        <f>INDEX(A$4:A4148,$L17*3+1)</f>
-        <v>101</v>
-      </c>
-      <c r="N17" t="str">
-        <f>INDEX(B$4:B4148,$L17*3+1)</f>
-        <v>Екологія</v>
-      </c>
-      <c r="O17">
-        <f>INDEX(C$4:C4148,$L17*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" t="str">
-        <f>INDEX(D$4:D4148,$L17*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q17" t="str">
-        <f>INDEX(E$4:E4148,$L17*3+1)</f>
-        <v>2. Біологія</v>
-      </c>
-      <c r="R17" t="str">
-        <f>INDEX(F$4:F4148,$L17*3+1)</f>
-        <v>3. Хімія або географія</v>
-      </c>
-      <c r="S17" t="str">
-        <f>INDEX(G$4:G4148,$L17*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T17" t="str">
-        <f>INDEX(H$4:H4148,$L17*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U17" t="str">
-        <f>INDEX(I$4:I4148,$L17*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V17">
-        <f>INDEX(J$4:J4148,$L17*3+1)</f>
-        <v>159.43799999999999</v>
-      </c>
-      <c r="W17" t="str">
-        <f>INDEX(K$4:K4148,$L17*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>28</v>
       </c>
@@ -2227,55 +1581,8 @@
         <v>0</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="M18">
-        <f>INDEX(A$4:A4149,$L18*3+1)</f>
-        <v>103</v>
-      </c>
-      <c r="N18" t="str">
-        <f>INDEX(B$4:B4149,$L18*3+1)</f>
-        <v>Науки про Землю</v>
-      </c>
-      <c r="O18" t="str">
-        <f>INDEX(C$4:C4149,$L18*3+1)</f>
-        <v>(Геологія)</v>
-      </c>
-      <c r="P18" t="str">
-        <f>INDEX(D$4:D4149,$L18*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q18" t="str">
-        <f>INDEX(E$4:E4149,$L18*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R18" t="str">
-        <f>INDEX(F$4:F4149,$L18*3+1)</f>
-        <v>3. Фізика або географія</v>
-      </c>
-      <c r="S18" t="str">
-        <f>INDEX(G$4:G4149,$L18*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T18" t="str">
-        <f>INDEX(H$4:H4149,$L18*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U18" t="str">
-        <f>INDEX(I$4:I4149,$L18*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V18">
-        <f>INDEX(J$4:J4149,$L18*3+1)</f>
-        <v>112.65</v>
-      </c>
-      <c r="W18" t="str">
-        <f>INDEX(K$4:K4149,$L18*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>53</v>
       </c>
@@ -2306,55 +1613,8 @@
       <c r="K19" t="s">
         <v>22</v>
       </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="M19">
-        <f>INDEX(A$4:A4150,$L19*3+1)</f>
-        <v>103</v>
-      </c>
-      <c r="N19" t="str">
-        <f>INDEX(B$4:B4150,$L19*3+1)</f>
-        <v>Науки про Землю</v>
-      </c>
-      <c r="O19" t="str">
-        <f>INDEX(C$4:C4150,$L19*3+1)</f>
-        <v>(Гідрологія)</v>
-      </c>
-      <c r="P19" t="str">
-        <f>INDEX(D$4:D4150,$L19*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q19" t="str">
-        <f>INDEX(E$4:E4150,$L19*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R19" t="str">
-        <f>INDEX(F$4:F4150,$L19*3+1)</f>
-        <v>3. Фізика або географія</v>
-      </c>
-      <c r="S19" t="str">
-        <f>INDEX(G$4:G4150,$L19*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T19" t="str">
-        <f>INDEX(H$4:H4150,$L19*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U19" t="str">
-        <f>INDEX(I$4:I4150,$L19*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V19">
-        <f>INDEX(J$4:J4150,$L19*3+1)</f>
-        <v>112.65</v>
-      </c>
-      <c r="W19" t="str">
-        <f>INDEX(K$4:K4150,$L19*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>12</v>
       </c>
@@ -2374,55 +1634,8 @@
         <v>0</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="L20">
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <f>INDEX(A$4:A4151,$L20*3+1)</f>
-        <v>106</v>
-      </c>
-      <c r="N20" t="str">
-        <f>INDEX(B$4:B4151,$L20*3+1)</f>
-        <v>Географія</v>
-      </c>
-      <c r="O20">
-        <f>INDEX(C$4:C4151,$L20*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" t="str">
-        <f>INDEX(D$4:D4151,$L20*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q20" t="str">
-        <f>INDEX(E$4:E4151,$L20*3+1)</f>
-        <v xml:space="preserve">2. Географія </v>
-      </c>
-      <c r="R20" t="str">
-        <f>INDEX(F$4:F4151,$L20*3+1)</f>
-        <v>3. Математика або іноземна мова</v>
-      </c>
-      <c r="S20" t="str">
-        <f>INDEX(G$4:G4151,$L20*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T20" t="str">
-        <f>INDEX(H$4:H4151,$L20*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U20" t="str">
-        <f>INDEX(I$4:I4151,$L20*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V20">
-        <f>INDEX(J$4:J4151,$L20*3+1)</f>
-        <v>184.08</v>
-      </c>
-      <c r="W20" t="str">
-        <f>INDEX(K$4:K4151,$L20*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>31</v>
       </c>
@@ -2442,55 +1655,8 @@
         <v>0</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <f>INDEX(A$4:A4152,$L21*3+1)</f>
-        <v>113</v>
-      </c>
-      <c r="N21" t="str">
-        <f>INDEX(B$4:B4152,$L21*3+1)</f>
-        <v>Прикладна математика</v>
-      </c>
-      <c r="O21">
-        <f>INDEX(C$4:C4152,$L21*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" t="str">
-        <f>INDEX(D$4:D4152,$L21*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q21" t="str">
-        <f>INDEX(E$4:E4152,$L21*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R21" t="str">
-        <f>INDEX(F$4:F4152,$L21*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S21" t="str">
-        <f>INDEX(G$4:G4152,$L21*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T21" t="str">
-        <f>INDEX(H$4:H4152,$L21*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="U21" t="str">
-        <f>INDEX(I$4:I4152,$L21*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="V21">
-        <f>INDEX(J$4:J4152,$L21*3+1)</f>
-        <v>170.39099999999999</v>
-      </c>
-      <c r="W21" t="str">
-        <f>INDEX(K$4:K4152,$L21*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>61</v>
       </c>
@@ -2521,55 +1687,8 @@
       <c r="K22" t="s">
         <v>22</v>
       </c>
-      <c r="L22">
-        <v>18</v>
-      </c>
-      <c r="M22">
-        <f>INDEX(A$4:A4153,$L22*3+1)</f>
-        <v>121</v>
-      </c>
-      <c r="N22" t="str">
-        <f>INDEX(B$4:B4153,$L22*3+1)</f>
-        <v>Інженерія програмного забезпечення</v>
-      </c>
-      <c r="O22" t="str">
-        <f>INDEX(C$4:C4153,$L22*3+1)</f>
-        <v>(Інтернет речей)</v>
-      </c>
-      <c r="P22" t="str">
-        <f>INDEX(D$4:D4153,$L22*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q22" t="str">
-        <f>INDEX(E$4:E4153,$L22*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R22" t="str">
-        <f>INDEX(F$4:F4153,$L22*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S22" t="str">
-        <f>INDEX(G$4:G4153,$L22*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T22" t="str">
-        <f>INDEX(H$4:H4153,$L22*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="U22" t="str">
-        <f>INDEX(I$4:I4153,$L22*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="V22">
-        <f>INDEX(J$4:J4153,$L22*3+1)</f>
-        <v>178.80600000000001</v>
-      </c>
-      <c r="W22" t="str">
-        <f>INDEX(K$4:K4153,$L22*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -2589,55 +1708,8 @@
         <v>0</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="M23">
-        <f>INDEX(A$4:A4154,$L23*3+1)</f>
-        <v>123</v>
-      </c>
-      <c r="N23" t="str">
-        <f>INDEX(B$4:B4154,$L23*3+1)</f>
-        <v>Комп`ютерна інженерія</v>
-      </c>
-      <c r="O23">
-        <f>INDEX(C$4:C4154,$L23*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" t="str">
-        <f>INDEX(D$4:D4154,$L23*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q23" t="str">
-        <f>INDEX(E$4:E4154,$L23*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R23" t="str">
-        <f>INDEX(F$4:F4154,$L23*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S23" t="str">
-        <f>INDEX(G$4:G4154,$L23*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T23" t="str">
-        <f>INDEX(H$4:H4154,$L23*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="U23" t="str">
-        <f>INDEX(I$4:I4154,$L23*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V23">
-        <f>INDEX(J$4:J4154,$L23*3+1)</f>
-        <v>167.45</v>
-      </c>
-      <c r="W23" t="str">
-        <f>INDEX(K$4:K4154,$L23*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>19</v>
       </c>
@@ -2657,55 +1729,8 @@
         <v>0</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <f>INDEX(A$4:A4155,$L24*3+1)</f>
-        <v>126</v>
-      </c>
-      <c r="N24" t="str">
-        <f>INDEX(B$4:B4155,$L24*3+1)</f>
-        <v>Інформаційні системи та технології</v>
-      </c>
-      <c r="O24">
-        <f>INDEX(C$4:C4155,$L24*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" t="str">
-        <f>INDEX(D$4:D4155,$L24*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q24" t="str">
-        <f>INDEX(E$4:E4155,$L24*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R24" t="str">
-        <f>INDEX(F$4:F4155,$L24*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S24" t="str">
-        <f>INDEX(G$4:G4155,$L24*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T24" t="str">
-        <f>INDEX(H$4:H4155,$L24*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="U24" t="str">
-        <f>INDEX(I$4:I4155,$L24*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="V24">
-        <f>INDEX(J$4:J4155,$L24*3+1)</f>
-        <v>167.892</v>
-      </c>
-      <c r="W24" t="str">
-        <f>INDEX(K$4:K4155,$L24*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>71</v>
       </c>
@@ -2736,55 +1761,8 @@
       <c r="K25" t="s">
         <v>22</v>
       </c>
-      <c r="L25">
-        <v>22</v>
-      </c>
-      <c r="M25">
-        <f>INDEX(A$4:A4156,$L25*3+1)</f>
-        <v>141</v>
-      </c>
-      <c r="N25" t="str">
-        <f>INDEX(B$4:B4156,$L25*3+1)</f>
-        <v xml:space="preserve">Електроенергетика, електротехніка та електромеханіка </v>
-      </c>
-      <c r="O25" t="str">
-        <f>INDEX(C$4:C4156,$L25*3+1)</f>
-        <v>(Електроенергетика, електротехніка та електромеханіка; Smart -енергетика та електромобільніссть)</v>
-      </c>
-      <c r="P25" t="str">
-        <f>INDEX(D$4:D4156,$L25*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q25" t="str">
-        <f>INDEX(E$4:E4156,$L25*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R25" t="str">
-        <f>INDEX(F$4:F4156,$L25*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S25" t="str">
-        <f>INDEX(G$4:G4156,$L25*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="T25" t="str">
-        <f>INDEX(H$4:H4156,$L25*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="U25" t="str">
-        <f>INDEX(I$4:I4156,$L25*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V25">
-        <f>INDEX(J$4:J4156,$L25*3+1)</f>
-        <v>104.61199999999999</v>
-      </c>
-      <c r="W25" t="str">
-        <f>INDEX(K$4:K4156,$L25*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>12</v>
       </c>
@@ -2804,55 +1782,8 @@
         <v>0</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="L26">
-        <v>23</v>
-      </c>
-      <c r="M26">
-        <f>INDEX(A$4:A4157,$L26*3+1)</f>
-        <v>133</v>
-      </c>
-      <c r="N26" t="str">
-        <f>INDEX(B$4:B4157,$L26*3+1)</f>
-        <v>Галузеве машинобудування</v>
-      </c>
-      <c r="O26">
-        <f>INDEX(C$4:C4157,$L26*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" t="str">
-        <f>INDEX(D$4:D4157,$L26*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q26" t="str">
-        <f>INDEX(E$4:E4157,$L26*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R26" t="str">
-        <f>INDEX(F$4:F4157,$L26*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S26" t="str">
-        <f>INDEX(G$4:G4157,$L26*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T26" t="str">
-        <f>INDEX(H$4:H4157,$L26*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U26" t="str">
-        <f>INDEX(I$4:I4157,$L26*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V26">
-        <f>INDEX(J$4:J4157,$L26*3+1)</f>
-        <v>107.40600000000001</v>
-      </c>
-      <c r="W26" t="str">
-        <f>INDEX(K$4:K4157,$L26*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -2872,55 +1803,8 @@
         <v>0</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="L27">
-        <v>24</v>
-      </c>
-      <c r="M27">
-        <f>INDEX(A$4:A4158,$L27*3+1)</f>
-        <v>144</v>
-      </c>
-      <c r="N27" t="str">
-        <f>INDEX(B$4:B4158,$L27*3+1)</f>
-        <v>Теплоенергетика</v>
-      </c>
-      <c r="O27">
-        <f>INDEX(C$4:C4158,$L27*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" t="str">
-        <f>INDEX(D$4:D4158,$L27*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q27" t="str">
-        <f>INDEX(E$4:E4158,$L27*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R27" t="str">
-        <f>INDEX(F$4:F4158,$L27*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S27" t="str">
-        <f>INDEX(G$4:G4158,$L27*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T27" t="str">
-        <f>INDEX(H$4:H4158,$L27*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U27" t="str">
-        <f>INDEX(I$4:I4158,$L27*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V27">
-        <f>INDEX(J$4:J4158,$L27*3+1)</f>
-        <v>104.61199999999999</v>
-      </c>
-      <c r="W27" t="str">
-        <f>INDEX(K$4:K4158,$L27*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>72</v>
       </c>
@@ -2951,55 +1835,8 @@
       <c r="K28" t="s">
         <v>22</v>
       </c>
-      <c r="L28">
-        <v>25</v>
-      </c>
-      <c r="M28">
-        <f>INDEX(A$4:A4159,$L28*3+1)</f>
-        <v>145</v>
-      </c>
-      <c r="N28" t="str">
-        <f>INDEX(B$4:B4159,$L28*3+1)</f>
-        <v xml:space="preserve">Гідроенергетика </v>
-      </c>
-      <c r="O28">
-        <f>INDEX(C$4:C4159,$L28*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" t="str">
-        <f>INDEX(D$4:D4159,$L28*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q28" t="str">
-        <f>INDEX(E$4:E4159,$L28*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R28" t="str">
-        <f>INDEX(F$4:F4159,$L28*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S28" t="str">
-        <f>INDEX(G$4:G4159,$L28*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T28" t="str">
-        <f>INDEX(H$4:H4159,$L28*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U28" t="str">
-        <f>INDEX(I$4:I4159,$L28*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V28">
-        <f>INDEX(J$4:J4159,$L28*3+1)</f>
-        <v>104.61199999999999</v>
-      </c>
-      <c r="W28" t="str">
-        <f>INDEX(K$4:K4159,$L28*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>12</v>
       </c>
@@ -3019,55 +1856,8 @@
         <v>0</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="L29">
-        <v>26</v>
-      </c>
-      <c r="M29">
-        <f>INDEX(A$4:A4160,$L29*3+1)</f>
-        <v>151</v>
-      </c>
-      <c r="N29" t="str">
-        <f>INDEX(B$4:B4160,$L29*3+1)</f>
-        <v>Автоматизація та комп'ютерно-інтегровані технології</v>
-      </c>
-      <c r="O29">
-        <f>INDEX(C$4:C4160,$L29*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" t="str">
-        <f>INDEX(D$4:D4160,$L29*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q29" t="str">
-        <f>INDEX(E$4:E4160,$L29*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R29" t="str">
-        <f>INDEX(F$4:F4160,$L29*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S29" t="str">
-        <f>INDEX(G$4:G4160,$L29*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="T29" t="str">
-        <f>INDEX(H$4:H4160,$L29*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="U29" t="str">
-        <f>INDEX(I$4:I4160,$L29*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V29">
-        <f>INDEX(J$4:J4160,$L29*3+1)</f>
-        <v>146.523</v>
-      </c>
-      <c r="W29" t="str">
-        <f>INDEX(K$4:K4160,$L29*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>28</v>
       </c>
@@ -3087,55 +1877,8 @@
         <v>0</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="L30">
-        <v>27</v>
-      </c>
-      <c r="M30">
-        <f>INDEX(A$4:A4161,$L30*3+1)</f>
-        <v>151</v>
-      </c>
-      <c r="N30" t="str">
-        <f>INDEX(B$4:B4161,$L30*3+1)</f>
-        <v>Автоматизація та комп'ютерно-інтегровані технології</v>
-      </c>
-      <c r="O30" t="str">
-        <f>INDEX(C$4:C4161,$L30*3+1)</f>
-        <v>(Робототехніка та штучний інтелект)</v>
-      </c>
-      <c r="P30" t="str">
-        <f>INDEX(D$4:D4161,$L30*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q30" t="str">
-        <f>INDEX(E$4:E4161,$L30*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R30" t="str">
-        <f>INDEX(F$4:F4161,$L30*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S30" t="str">
-        <f>INDEX(G$4:G4161,$L30*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="T30" t="str">
-        <f>INDEX(H$4:H4161,$L30*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="U30" t="str">
-        <f>INDEX(I$4:I4161,$L30*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V30">
-        <f>INDEX(J$4:J4161,$L30*3+1)</f>
-        <v>146.523</v>
-      </c>
-      <c r="W30" t="str">
-        <f>INDEX(K$4:K4161,$L30*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>73</v>
       </c>
@@ -3166,55 +1909,8 @@
       <c r="K31" t="s">
         <v>22</v>
       </c>
-      <c r="L31">
-        <v>28</v>
-      </c>
-      <c r="M31">
-        <f>INDEX(A$4:A4162,$L31*3+1)</f>
-        <v>183</v>
-      </c>
-      <c r="N31" t="str">
-        <f>INDEX(B$4:B4162,$L31*3+1)</f>
-        <v>Технології захисту навколишнього середовища</v>
-      </c>
-      <c r="O31">
-        <f>INDEX(C$4:C4162,$L31*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" t="str">
-        <f>INDEX(D$4:D4162,$L31*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q31" t="str">
-        <f>INDEX(E$4:E4162,$L31*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R31" t="str">
-        <f>INDEX(F$4:F4162,$L31*3+1)</f>
-        <v>3. Фізика або біологія</v>
-      </c>
-      <c r="S31" t="str">
-        <f>INDEX(G$4:G4162,$L31*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T31" t="str">
-        <f>INDEX(H$4:H4162,$L31*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U31" t="str">
-        <f>INDEX(I$4:I4162,$L31*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V31">
-        <f>INDEX(J$4:J4162,$L31*3+1)</f>
-        <v>135.61600000000001</v>
-      </c>
-      <c r="W31" t="str">
-        <f>INDEX(K$4:K4162,$L31*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>12</v>
       </c>
@@ -3234,55 +1930,8 @@
         <v>0</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="L32">
-        <v>29</v>
-      </c>
-      <c r="M32">
-        <f>INDEX(A$4:A4163,$L32*3+1)</f>
-        <v>184</v>
-      </c>
-      <c r="N32" t="str">
-        <f>INDEX(B$4:B4163,$L32*3+1)</f>
-        <v>Гірництво</v>
-      </c>
-      <c r="O32">
-        <f>INDEX(C$4:C4163,$L32*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" t="str">
-        <f>INDEX(D$4:D4163,$L32*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q32" t="str">
-        <f>INDEX(E$4:E4163,$L32*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R32" t="str">
-        <f>INDEX(F$4:F4163,$L32*3+1)</f>
-        <v>3. Фізика або географія</v>
-      </c>
-      <c r="S32" t="str">
-        <f>INDEX(G$4:G4163,$L32*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T32" t="str">
-        <f>INDEX(H$4:H4163,$L32*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U32" t="str">
-        <f>INDEX(I$4:I4163,$L32*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V32">
-        <f>INDEX(J$4:J4163,$L32*3+1)</f>
-        <v>129.79</v>
-      </c>
-      <c r="W32" t="str">
-        <f>INDEX(K$4:K4163,$L32*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>28</v>
       </c>
@@ -3302,55 +1951,8 @@
         <v>0</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="L33">
-        <v>30</v>
-      </c>
-      <c r="M33">
-        <f>INDEX(A$4:A4164,$L33*3+1)</f>
-        <v>191</v>
-      </c>
-      <c r="N33" t="str">
-        <f>INDEX(B$4:B4164,$L33*3+1)</f>
-        <v xml:space="preserve">Архітектура та містобудування </v>
-      </c>
-      <c r="O33">
-        <f>INDEX(C$4:C4164,$L33*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" t="str">
-        <f>INDEX(D$4:D4164,$L33*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q33" t="str">
-        <f>INDEX(E$4:E4164,$L33*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R33" t="str">
-        <f>INDEX(F$4:F4164,$L33*3+1)</f>
-        <v>3. Творчий конкурс</v>
-      </c>
-      <c r="S33" t="str">
-        <f>INDEX(G$4:G4164,$L33*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="T33" t="str">
-        <f>INDEX(H$4:H4164,$L33*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="U33" t="str">
-        <f>INDEX(I$4:I4164,$L33*3+1)</f>
-        <v>0,5</v>
-      </c>
-      <c r="V33">
-        <f>INDEX(J$4:J4164,$L33*3+1)</f>
-        <v>179.41800000000001</v>
-      </c>
-      <c r="W33" t="str">
-        <f>INDEX(K$4:K4164,$L33*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>75</v>
       </c>
@@ -3381,55 +1983,8 @@
       <c r="K34" t="s">
         <v>22</v>
       </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
-      <c r="M34">
-        <f>INDEX(A$4:A4165,$L34*3+1)</f>
-        <v>192</v>
-      </c>
-      <c r="N34" t="str">
-        <f>INDEX(B$4:B4165,$L34*3+1)</f>
-        <v>Будівництво та цивільна інженерія</v>
-      </c>
-      <c r="O34">
-        <f>INDEX(C$4:C4165,$L34*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" t="str">
-        <f>INDEX(D$4:D4165,$L34*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q34" t="str">
-        <f>INDEX(E$4:E4165,$L34*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R34" t="str">
-        <f>INDEX(F$4:F4165,$L34*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S34" t="str">
-        <f>INDEX(G$4:G4165,$L34*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T34" t="str">
-        <f>INDEX(H$4:H4165,$L34*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U34" t="str">
-        <f>INDEX(I$4:I4165,$L34*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V34">
-        <f>INDEX(J$4:J4165,$L34*3+1)</f>
-        <v>105.913</v>
-      </c>
-      <c r="W34" t="str">
-        <f>INDEX(K$4:K4165,$L34*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>12</v>
       </c>
@@ -3449,55 +2004,8 @@
         <v>0</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="L35">
-        <v>32</v>
-      </c>
-      <c r="M35">
-        <f>INDEX(A$4:A4166,$L35*3+1)</f>
-        <v>193</v>
-      </c>
-      <c r="N35" t="str">
-        <f>INDEX(B$4:B4166,$L35*3+1)</f>
-        <v>Геодезія та землеустрій</v>
-      </c>
-      <c r="O35">
-        <f>INDEX(C$4:C4166,$L35*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" t="str">
-        <f>INDEX(D$4:D4166,$L35*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q35" t="str">
-        <f>INDEX(E$4:E4166,$L35*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R35" t="str">
-        <f>INDEX(F$4:F4166,$L35*3+1)</f>
-        <v>3. Географія або Історія України</v>
-      </c>
-      <c r="S35" t="str">
-        <f>INDEX(G$4:G4166,$L35*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T35" t="str">
-        <f>INDEX(H$4:H4166,$L35*3+1)</f>
-        <v>0,2</v>
-      </c>
-      <c r="U35" t="str">
-        <f>INDEX(I$4:I4166,$L35*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="V35">
-        <f>INDEX(J$4:J4166,$L35*3+1)</f>
-        <v>161.626</v>
-      </c>
-      <c r="W35" t="str">
-        <f>INDEX(K$4:K4166,$L35*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>28</v>
       </c>
@@ -3517,55 +2025,8 @@
         <v>0</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="L36">
-        <v>33</v>
-      </c>
-      <c r="M36">
-        <f>INDEX(A$4:A4167,$L36*3+1)</f>
-        <v>194</v>
-      </c>
-      <c r="N36" t="str">
-        <f>INDEX(B$4:B4167,$L36*3+1)</f>
-        <v>Гідротехнічне будівництво, водна інженерія та водні технології</v>
-      </c>
-      <c r="O36">
-        <f>INDEX(C$4:C4167,$L36*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" t="str">
-        <f>INDEX(D$4:D4167,$L36*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q36" t="str">
-        <f>INDEX(E$4:E4167,$L36*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R36" t="str">
-        <f>INDEX(F$4:F4167,$L36*3+1)</f>
-        <v>3. Фізика або географія</v>
-      </c>
-      <c r="S36" t="str">
-        <f>INDEX(G$4:G4167,$L36*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T36" t="str">
-        <f>INDEX(H$4:H4167,$L36*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U36" t="str">
-        <f>INDEX(I$4:I4167,$L36*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V36">
-        <f>INDEX(J$4:J4167,$L36*3+1)</f>
-        <v>150.96199999999999</v>
-      </c>
-      <c r="W36" t="str">
-        <f>INDEX(K$4:K4167,$L36*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>76</v>
       </c>
@@ -3596,55 +2057,8 @@
       <c r="K37" t="s">
         <v>22</v>
       </c>
-      <c r="L37">
-        <v>34</v>
-      </c>
-      <c r="M37">
-        <f>INDEX(A$4:A4168,$L37*3+1)</f>
-        <v>201</v>
-      </c>
-      <c r="N37" t="str">
-        <f>INDEX(B$4:B4168,$L37*3+1)</f>
-        <v>Агрономія</v>
-      </c>
-      <c r="O37">
-        <f>INDEX(C$4:C4168,$L37*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" t="str">
-        <f>INDEX(D$4:D4168,$L37*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q37" t="str">
-        <f>INDEX(E$4:E4168,$L37*3+1)</f>
-        <v xml:space="preserve">2. Біологія </v>
-      </c>
-      <c r="R37" t="str">
-        <f>INDEX(F$4:F4168,$L37*3+1)</f>
-        <v>3. Хімія або математика</v>
-      </c>
-      <c r="S37" t="str">
-        <f>INDEX(G$4:G4168,$L37*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T37" t="str">
-        <f>INDEX(H$4:H4168,$L37*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U37" t="str">
-        <f>INDEX(I$4:I4168,$L37*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V37">
-        <f>INDEX(J$4:J4168,$L37*3+1)</f>
-        <v>135.93</v>
-      </c>
-      <c r="W37" t="str">
-        <f>INDEX(K$4:K4168,$L37*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>12</v>
       </c>
@@ -3664,55 +2078,8 @@
         <v>0</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="L38">
-        <v>35</v>
-      </c>
-      <c r="M38">
-        <f>INDEX(A$4:A4169,$L38*3+1)</f>
-        <v>207</v>
-      </c>
-      <c r="N38" t="str">
-        <f>INDEX(B$4:B4169,$L38*3+1)</f>
-        <v>Водні біоресурси та аквакультура</v>
-      </c>
-      <c r="O38">
-        <f>INDEX(C$4:C4169,$L38*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P38" t="str">
-        <f>INDEX(D$4:D4169,$L38*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q38" t="str">
-        <f>INDEX(E$4:E4169,$L38*3+1)</f>
-        <v xml:space="preserve">2. Біологія </v>
-      </c>
-      <c r="R38" t="str">
-        <f>INDEX(F$4:F4169,$L38*3+1)</f>
-        <v>3. Хімія або математика</v>
-      </c>
-      <c r="S38" t="str">
-        <f>INDEX(G$4:G4169,$L38*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="T38" t="str">
-        <f>INDEX(H$4:H4169,$L38*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="U38" t="str">
-        <f>INDEX(I$4:I4169,$L38*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V38">
-        <f>INDEX(J$4:J4169,$L38*3+1)</f>
-        <v>138.5</v>
-      </c>
-      <c r="W38" t="str">
-        <f>INDEX(K$4:K4169,$L38*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>28</v>
       </c>
@@ -3732,55 +2099,8 @@
         <v>0</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="L39">
-        <v>36</v>
-      </c>
-      <c r="M39">
-        <f>INDEX(A$4:A4170,$L39*3+1)</f>
-        <v>208</v>
-      </c>
-      <c r="N39" t="str">
-        <f>INDEX(B$4:B4170,$L39*3+1)</f>
-        <v>Агроінженерія</v>
-      </c>
-      <c r="O39">
-        <f>INDEX(C$4:C4170,$L39*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" t="str">
-        <f>INDEX(D$4:D4170,$L39*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q39" t="str">
-        <f>INDEX(E$4:E4170,$L39*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R39" t="str">
-        <f>INDEX(F$4:F4170,$L39*3+1)</f>
-        <v>3. Фізика або географія</v>
-      </c>
-      <c r="S39" t="str">
-        <f>INDEX(G$4:G4170,$L39*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T39" t="str">
-        <f>INDEX(H$4:H4170,$L39*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U39" t="str">
-        <f>INDEX(I$4:I4170,$L39*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V39">
-        <f>INDEX(J$4:J4170,$L39*3+1)</f>
-        <v>108.599</v>
-      </c>
-      <c r="W39" t="str">
-        <f>INDEX(K$4:K4170,$L39*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>81</v>
       </c>
@@ -3811,55 +2131,8 @@
       <c r="K40" t="s">
         <v>22</v>
       </c>
-      <c r="L40">
-        <v>37</v>
-      </c>
-      <c r="M40">
-        <f>INDEX(A$4:A4171,$L40*3+1)</f>
-        <v>227</v>
-      </c>
-      <c r="N40" t="str">
-        <f>INDEX(B$4:B4171,$L40*3+1)</f>
-        <v>Фізична терапія, ерготерапія</v>
-      </c>
-      <c r="O40">
-        <f>INDEX(C$4:C4171,$L40*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" t="str">
-        <f>INDEX(D$4:D4171,$L40*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q40" t="str">
-        <f>INDEX(E$4:E4171,$L40*3+1)</f>
-        <v>2. Біологія або хімія</v>
-      </c>
-      <c r="R40" t="str">
-        <f>INDEX(F$4:F4171,$L40*3+1)</f>
-        <v>3. Фізика або математика</v>
-      </c>
-      <c r="S40" t="str">
-        <f>INDEX(G$4:G4171,$L40*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T40" t="str">
-        <f>INDEX(H$4:H4171,$L40*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="U40" t="str">
-        <f>INDEX(I$4:I4171,$L40*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V40">
-        <f>INDEX(J$4:J4171,$L40*3+1)</f>
-        <v>150.96</v>
-      </c>
-      <c r="W40" t="str">
-        <f>INDEX(K$4:K4171,$L40*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>18</v>
       </c>
@@ -3879,55 +2152,8 @@
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="L41">
-        <v>38</v>
-      </c>
-      <c r="M41">
-        <f>INDEX(A$4:A4172,$L41*3+1)</f>
-        <v>242</v>
-      </c>
-      <c r="N41" t="str">
-        <f>INDEX(B$4:B4172,$L41*3+1)</f>
-        <v>Туризм</v>
-      </c>
-      <c r="O41">
-        <f>INDEX(C$4:C4172,$L41*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" t="str">
-        <f>INDEX(D$4:D4172,$L41*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q41" t="str">
-        <f>INDEX(E$4:E4172,$L41*3+1)</f>
-        <v xml:space="preserve">2. Іноземна мова </v>
-      </c>
-      <c r="R41" t="str">
-        <f>INDEX(F$4:F4172,$L41*3+1)</f>
-        <v>3. Географія або математика</v>
-      </c>
-      <c r="S41" t="str">
-        <f>INDEX(G$4:G4172,$L41*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="T41" t="str">
-        <f>INDEX(H$4:H4172,$L41*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U41" t="str">
-        <f>INDEX(I$4:I4172,$L41*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="V41">
-        <f>INDEX(J$4:J4172,$L41*3+1)</f>
-        <v>175.542</v>
-      </c>
-      <c r="W41" t="str">
-        <f>INDEX(K$4:K4172,$L41*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>19</v>
       </c>
@@ -3947,55 +2173,8 @@
         <v>0</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="L42">
-        <v>39</v>
-      </c>
-      <c r="M42">
-        <f>INDEX(A$4:A4173,$L42*3+1)</f>
-        <v>263</v>
-      </c>
-      <c r="N42" t="str">
-        <f>INDEX(B$4:B4173,$L42*3+1)</f>
-        <v>Цивільна безпека</v>
-      </c>
-      <c r="O42">
-        <f>INDEX(C$4:C4173,$L42*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" t="str">
-        <f>INDEX(D$4:D4173,$L42*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q42" t="str">
-        <f>INDEX(E$4:E4173,$L42*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R42" t="str">
-        <f>INDEX(F$4:F4173,$L42*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S42" t="str">
-        <f>INDEX(G$4:G4173,$L42*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T42" t="str">
-        <f>INDEX(H$4:H4173,$L42*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U42" t="str">
-        <f>INDEX(I$4:I4173,$L42*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V42">
-        <f>INDEX(J$4:J4173,$L42*3+1)</f>
-        <v>152.72</v>
-      </c>
-      <c r="W42" t="str">
-        <f>INDEX(K$4:K4173,$L42*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>101</v>
       </c>
@@ -4026,55 +2205,8 @@
       <c r="K43" t="s">
         <v>22</v>
       </c>
-      <c r="L43">
-        <v>40</v>
-      </c>
-      <c r="M43">
-        <f>INDEX(A$4:A4174,$L43*3+1)</f>
-        <v>274</v>
-      </c>
-      <c r="N43" t="str">
-        <f>INDEX(B$4:B4174,$L43*3+1)</f>
-        <v>Автомобільний транспорт</v>
-      </c>
-      <c r="O43">
-        <f>INDEX(C$4:C4174,$L43*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" t="str">
-        <f>INDEX(D$4:D4174,$L43*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q43" t="str">
-        <f>INDEX(E$4:E4174,$L43*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R43" t="str">
-        <f>INDEX(F$4:F4174,$L43*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S43" t="str">
-        <f>INDEX(G$4:G4174,$L43*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T43" t="str">
-        <f>INDEX(H$4:H4174,$L43*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U43" t="str">
-        <f>INDEX(I$4:I4174,$L43*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V43">
-        <f>INDEX(J$4:J4174,$L43*3+1)</f>
-        <v>132.49799999999999</v>
-      </c>
-      <c r="W43" t="str">
-        <f>INDEX(K$4:K4174,$L43*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>40</v>
       </c>
@@ -4094,55 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="L44">
-        <v>41</v>
-      </c>
-      <c r="M44">
-        <f>INDEX(A$4:A4175,$L44*3+1)</f>
-        <v>275.02999999999997</v>
-      </c>
-      <c r="N44" t="str">
-        <f>INDEX(B$4:B4175,$L44*3+1)</f>
-        <v>Транспортні технології</v>
-      </c>
-      <c r="O44" t="str">
-        <f>INDEX(C$4:C4175,$L44*3+1)</f>
-        <v>(на автомобільному транспорті)</v>
-      </c>
-      <c r="P44" t="str">
-        <f>INDEX(D$4:D4175,$L44*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q44" t="str">
-        <f>INDEX(E$4:E4175,$L44*3+1)</f>
-        <v>2. Математика</v>
-      </c>
-      <c r="R44" t="str">
-        <f>INDEX(F$4:F4175,$L44*3+1)</f>
-        <v>3. Фізика або іноземна мова</v>
-      </c>
-      <c r="S44" t="str">
-        <f>INDEX(G$4:G4175,$L44*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="T44" t="str">
-        <f>INDEX(H$4:H4175,$L44*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U44" t="str">
-        <f>INDEX(I$4:I4175,$L44*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="V44">
-        <f>INDEX(J$4:J4175,$L44*3+1)</f>
-        <v>134.5</v>
-      </c>
-      <c r="W44" t="str">
-        <f>INDEX(K$4:K4175,$L44*3+1)</f>
-        <v>1,02 або 1.00</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>41</v>
       </c>
@@ -4162,55 +2247,8 @@
         <v>0</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="L45">
-        <v>42</v>
-      </c>
-      <c r="M45">
-        <f>INDEX(A$4:A4176,$L45*3+1)</f>
-        <v>281</v>
-      </c>
-      <c r="N45" t="str">
-        <f>INDEX(B$4:B4176,$L45*3+1)</f>
-        <v>Публічне управління та адміністрування</v>
-      </c>
-      <c r="O45">
-        <f>INDEX(C$4:C4176,$L45*3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" t="str">
-        <f>INDEX(D$4:D4176,$L45*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q45" t="str">
-        <f>INDEX(E$4:E4176,$L45*3+1)</f>
-        <v xml:space="preserve">2. Математика </v>
-      </c>
-      <c r="R45" t="str">
-        <f>INDEX(F$4:F4176,$L45*3+1)</f>
-        <v>3. Іноземна мова або історія України</v>
-      </c>
-      <c r="S45" t="str">
-        <f>INDEX(G$4:G4176,$L45*3+1)</f>
-        <v>0,4</v>
-      </c>
-      <c r="T45" t="str">
-        <f>INDEX(H$4:H4176,$L45*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="U45" t="str">
-        <f>INDEX(I$4:I4176,$L45*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V45">
-        <f>INDEX(J$4:J4176,$L45*3+1)</f>
-        <v>182.274</v>
-      </c>
-      <c r="W45" t="str">
-        <f>INDEX(K$4:K4176,$L45*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>103</v>
       </c>
@@ -4244,55 +2282,8 @@
       <c r="K46" t="s">
         <v>16</v>
       </c>
-      <c r="L46">
-        <v>43</v>
-      </c>
-      <c r="M46">
-        <f>INDEX(A$4:A4177,$L46*3+1)</f>
-        <v>292</v>
-      </c>
-      <c r="N46" t="str">
-        <f>INDEX(B$4:B4177,$L46*3+1)</f>
-        <v xml:space="preserve">Міжнародні економічні відносини </v>
-      </c>
-      <c r="O46" t="str">
-        <f>INDEX(C$4:C4177,$L46*3+1)</f>
-        <v>(Міжнародний бізнес)</v>
-      </c>
-      <c r="P46" t="str">
-        <f>INDEX(D$4:D4177,$L46*3+1)</f>
-        <v xml:space="preserve">1. Українська мова та література </v>
-      </c>
-      <c r="Q46" t="str">
-        <f>INDEX(E$4:E4177,$L46*3+1)</f>
-        <v xml:space="preserve">2. Іноземна мова </v>
-      </c>
-      <c r="R46" t="str">
-        <f>INDEX(F$4:F4177,$L46*3+1)</f>
-        <v>3. Географія або математика</v>
-      </c>
-      <c r="S46" t="str">
-        <f>INDEX(G$4:G4177,$L46*3+1)</f>
-        <v>0,35</v>
-      </c>
-      <c r="T46" t="str">
-        <f>INDEX(H$4:H4177,$L46*3+1)</f>
-        <v>0,3</v>
-      </c>
-      <c r="U46" t="str">
-        <f>INDEX(I$4:I4177,$L46*3+1)</f>
-        <v>0,25</v>
-      </c>
-      <c r="V46">
-        <f>INDEX(J$4:J4177,$L46*3+1)</f>
-        <v>186.71100000000001</v>
-      </c>
-      <c r="W46" t="str">
-        <f>INDEX(K$4:K4177,$L46*3+1)</f>
-        <v>1,00</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>43</v>
       </c>
@@ -4315,11 +2306,8 @@
         <v>0</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="L47">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>45</v>
       </c>
@@ -4339,11 +2327,8 @@
         <v>0</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="L48">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>103</v>
       </c>
@@ -4377,11 +2362,8 @@
       <c r="K49" t="s">
         <v>16</v>
       </c>
-      <c r="L49">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>46</v>
       </c>
@@ -4404,11 +2386,8 @@
         <v>0</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="L50">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -4428,11 +2407,8 @@
         <v>0</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="L51">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>106</v>
       </c>
@@ -4463,11 +2439,8 @@
       <c r="K52" t="s">
         <v>16</v>
       </c>
-      <c r="L52">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>48</v>
       </c>
@@ -4487,11 +2460,8 @@
         <v>0</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="L53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>19</v>
       </c>
@@ -4511,11 +2481,8 @@
         <v>0</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="L54">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>113</v>
       </c>
@@ -4546,11 +2513,8 @@
       <c r="K55" t="s">
         <v>22</v>
       </c>
-      <c r="L55">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>44</v>
       </c>
@@ -4570,11 +2534,8 @@
         <v>0</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="L56">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>50</v>
       </c>
@@ -4594,11 +2555,8 @@
         <v>0</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="L57">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>121</v>
       </c>
@@ -4632,11 +2590,8 @@
       <c r="K58" t="s">
         <v>22</v>
       </c>
-      <c r="L58">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>52</v>
       </c>
@@ -4659,11 +2614,8 @@
         <v>0</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="L59">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>50</v>
       </c>
@@ -4683,11 +2635,8 @@
         <v>0</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="L60">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>122</v>
       </c>
@@ -4718,11 +2667,8 @@
       <c r="K61" t="s">
         <v>22</v>
       </c>
-      <c r="L61">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>44</v>
       </c>
@@ -4742,11 +2688,8 @@
         <v>0</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="L62">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>50</v>
       </c>
@@ -4766,11 +2709,8 @@
         <v>0</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="L63">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>123</v>
       </c>
@@ -4801,11 +2741,8 @@
       <c r="K64" t="s">
         <v>22</v>
       </c>
-      <c r="L64">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>44</v>
       </c>
@@ -4825,11 +2762,8 @@
         <v>0</v>
       </c>
       <c r="J65" s="2"/>
-      <c r="L65">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>50</v>
       </c>
@@ -4849,11 +2783,8 @@
         <v>0</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="L66">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>126</v>
       </c>
@@ -4884,11 +2815,8 @@
       <c r="K67" t="s">
         <v>22</v>
       </c>
-      <c r="L67">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>44</v>
       </c>
@@ -4908,11 +2836,8 @@
         <v>0</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="L68">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>50</v>
       </c>
@@ -4932,11 +2857,8 @@
         <v>0</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="L69">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>141</v>
       </c>
@@ -4970,11 +2892,8 @@
       <c r="K70" t="s">
         <v>16</v>
       </c>
-      <c r="L70">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>56</v>
       </c>
@@ -4997,11 +2916,8 @@
         <v>0</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="L71">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>50</v>
       </c>
@@ -5021,11 +2937,8 @@
         <v>0</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="L72">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>133</v>
       </c>
@@ -5056,11 +2969,8 @@
       <c r="K73" t="s">
         <v>16</v>
       </c>
-      <c r="L73">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>44</v>
       </c>
@@ -5080,11 +2990,8 @@
         <v>0</v>
       </c>
       <c r="J74" s="2"/>
-      <c r="L74">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>50</v>
       </c>
@@ -5104,11 +3011,8 @@
         <v>0</v>
       </c>
       <c r="J75" s="2"/>
-      <c r="L75">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>144</v>
       </c>
@@ -5139,11 +3043,8 @@
       <c r="K76" t="s">
         <v>16</v>
       </c>
-      <c r="L76">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>44</v>
       </c>
@@ -5163,11 +3064,8 @@
         <v>0</v>
       </c>
       <c r="J77" s="2"/>
-      <c r="L77">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>50</v>
       </c>
@@ -5187,11 +3085,8 @@
         <v>0</v>
       </c>
       <c r="J78" s="2"/>
-      <c r="L78">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>145</v>
       </c>
@@ -5222,11 +3117,8 @@
       <c r="K79" t="s">
         <v>16</v>
       </c>
-      <c r="L79">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>44</v>
       </c>
@@ -5246,11 +3138,8 @@
         <v>0</v>
       </c>
       <c r="J80" s="2"/>
-      <c r="L80">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>50</v>
       </c>
@@ -5270,11 +3159,8 @@
         <v>0</v>
       </c>
       <c r="J81" s="2"/>
-      <c r="L81">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>151</v>
       </c>
@@ -5305,11 +3191,8 @@
       <c r="K82" t="s">
         <v>16</v>
       </c>
-      <c r="L82">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>44</v>
       </c>
@@ -5329,11 +3212,8 @@
         <v>0</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="L83">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>50</v>
       </c>
@@ -5353,11 +3233,8 @@
         <v>0</v>
       </c>
       <c r="J84" s="2"/>
-      <c r="L84">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>151</v>
       </c>
@@ -5391,11 +3268,8 @@
       <c r="K85" t="s">
         <v>16</v>
       </c>
-      <c r="L85">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>61</v>
       </c>
@@ -5418,11 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="L86">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>50</v>
       </c>
@@ -5442,11 +3313,8 @@
         <v>0</v>
       </c>
       <c r="J87" s="2"/>
-      <c r="L87">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>183</v>
       </c>
@@ -5477,11 +3345,8 @@
       <c r="K88" t="s">
         <v>16</v>
       </c>
-      <c r="L88">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>44</v>
       </c>
@@ -5501,11 +3366,8 @@
         <v>0</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="L89">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>63</v>
       </c>
@@ -5525,11 +3387,8 @@
         <v>0</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="L90">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>184</v>
       </c>
@@ -5560,11 +3419,8 @@
       <c r="K91" t="s">
         <v>16</v>
       </c>
-      <c r="L91">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>44</v>
       </c>
@@ -5584,11 +3440,8 @@
         <v>0</v>
       </c>
       <c r="J92" s="2"/>
-      <c r="L92">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>45</v>
       </c>
@@ -5608,11 +3461,8 @@
         <v>0</v>
       </c>
       <c r="J93" s="2"/>
-      <c r="L93">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>191</v>
       </c>
@@ -5643,11 +3493,8 @@
       <c r="K94" t="s">
         <v>22</v>
       </c>
-      <c r="L94">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>12</v>
       </c>
@@ -5667,11 +3514,8 @@
         <v>0</v>
       </c>
       <c r="J95" s="2"/>
-      <c r="L95">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>66</v>
       </c>
@@ -5691,11 +3535,8 @@
         <v>0</v>
       </c>
       <c r="J96" s="2"/>
-      <c r="L96">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>192</v>
       </c>
@@ -5726,11 +3567,8 @@
       <c r="K97" t="s">
         <v>16</v>
       </c>
-      <c r="L97">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>44</v>
       </c>
@@ -5750,11 +3588,8 @@
         <v>0</v>
       </c>
       <c r="J98" s="2"/>
-      <c r="L98">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>50</v>
       </c>
@@ -5774,11 +3609,8 @@
         <v>0</v>
       </c>
       <c r="J99" s="2"/>
-      <c r="L99">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>193</v>
       </c>
@@ -5809,11 +3641,8 @@
       <c r="K100" t="s">
         <v>16</v>
       </c>
-      <c r="L100">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>12</v>
       </c>
@@ -5833,11 +3662,8 @@
         <v>0</v>
       </c>
       <c r="J101" s="2"/>
-      <c r="L101">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>70</v>
       </c>
@@ -5857,11 +3683,8 @@
         <v>0</v>
       </c>
       <c r="J102" s="2"/>
-      <c r="L102">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>194</v>
       </c>
@@ -5892,11 +3715,8 @@
       <c r="K103" t="s">
         <v>16</v>
       </c>
-      <c r="L103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>12</v>
       </c>
@@ -5916,11 +3736,8 @@
         <v>0</v>
       </c>
       <c r="J104" s="2"/>
-      <c r="L104">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>45</v>
       </c>
@@ -5940,11 +3757,8 @@
         <v>0</v>
       </c>
       <c r="J105" s="2"/>
-      <c r="L105">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>201</v>
       </c>
@@ -5975,11 +3789,8 @@
       <c r="K106" t="s">
         <v>16</v>
       </c>
-      <c r="L106">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>73</v>
       </c>
@@ -5999,11 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J107" s="2"/>
-      <c r="L107">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>74</v>
       </c>
@@ -6023,11 +3831,8 @@
         <v>0</v>
       </c>
       <c r="J108" s="2"/>
-      <c r="L108">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>207</v>
       </c>
@@ -6058,11 +3863,8 @@
       <c r="K109" t="s">
         <v>16</v>
       </c>
-      <c r="L109">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>73</v>
       </c>
@@ -6082,11 +3884,8 @@
         <v>0</v>
       </c>
       <c r="J110" s="2"/>
-      <c r="L110">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>74</v>
       </c>
@@ -6106,11 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J111" s="2"/>
-      <c r="L111">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>208</v>
       </c>
@@ -6141,11 +3937,8 @@
       <c r="K112" t="s">
         <v>16</v>
       </c>
-      <c r="L112">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>44</v>
       </c>
@@ -6165,11 +3958,8 @@
         <v>0</v>
       </c>
       <c r="J113" s="2"/>
-      <c r="L113">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>45</v>
       </c>
@@ -6189,11 +3979,8 @@
         <v>0</v>
       </c>
       <c r="J114" s="2"/>
-      <c r="L114">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>227</v>
       </c>
@@ -6224,11 +4011,8 @@
       <c r="K115" t="s">
         <v>22</v>
       </c>
-      <c r="L115">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>78</v>
       </c>
@@ -6248,11 +4032,8 @@
         <v>0</v>
       </c>
       <c r="J116" s="2"/>
-      <c r="L116">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>79</v>
       </c>
@@ -6272,11 +4053,8 @@
         <v>0</v>
       </c>
       <c r="J117" s="2"/>
-      <c r="L117">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>242</v>
       </c>
@@ -6307,11 +4085,8 @@
       <c r="K118" t="s">
         <v>22</v>
       </c>
-      <c r="L118">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>81</v>
       </c>
@@ -6331,11 +4106,8 @@
         <v>0</v>
       </c>
       <c r="J119" s="2"/>
-      <c r="L119">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>82</v>
       </c>
@@ -6355,11 +4127,8 @@
         <v>0</v>
       </c>
       <c r="J120" s="2"/>
-      <c r="L120">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>263</v>
       </c>
@@ -6390,11 +4159,8 @@
       <c r="K121" t="s">
         <v>16</v>
       </c>
-      <c r="L121">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>44</v>
       </c>
@@ -6414,11 +4180,8 @@
         <v>0</v>
       </c>
       <c r="J122" s="2"/>
-      <c r="L122">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>50</v>
       </c>
@@ -6438,11 +4201,8 @@
         <v>0</v>
       </c>
       <c r="J123" s="2"/>
-      <c r="L123">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>274</v>
       </c>
@@ -6473,11 +4233,8 @@
       <c r="K124" t="s">
         <v>16</v>
       </c>
-      <c r="L124">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>44</v>
       </c>
@@ -6497,11 +4254,8 @@
         <v>0</v>
       </c>
       <c r="J125" s="2"/>
-      <c r="L125">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>50</v>
       </c>
@@ -6521,11 +4275,8 @@
         <v>0</v>
       </c>
       <c r="J126" s="2"/>
-      <c r="L126">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>275.02999999999997</v>
       </c>
@@ -6559,11 +4310,8 @@
       <c r="K127" t="s">
         <v>16</v>
       </c>
-      <c r="L127">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>86</v>
       </c>
@@ -6586,9 +4334,6 @@
         <v>0</v>
       </c>
       <c r="J128" s="2"/>
-      <c r="L128">
-        <v>125</v>
-      </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
@@ -6610,9 +4355,6 @@
         <v>0</v>
       </c>
       <c r="J129" s="2"/>
-      <c r="L129">
-        <v>126</v>
-      </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -6645,12 +4387,7 @@
       <c r="K130" t="s">
         <v>22</v>
       </c>
-      <c r="L130">
-        <v>127</v>
-      </c>
-      <c r="Y130" s="1">
-        <v>182274</v>
-      </c>
+      <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
@@ -6672,9 +4409,6 @@
         <v>0</v>
       </c>
       <c r="J131" s="2"/>
-      <c r="L131">
-        <v>128</v>
-      </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
@@ -6696,9 +4430,6 @@
         <v>0</v>
       </c>
       <c r="J132" s="2"/>
-      <c r="L132">
-        <v>129</v>
-      </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -6734,12 +4465,7 @@
       <c r="K133" t="s">
         <v>22</v>
       </c>
-      <c r="L133">
-        <v>130</v>
-      </c>
-      <c r="Y133" s="1">
-        <v>186711</v>
-      </c>
+      <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
@@ -6751,8 +4477,8 @@
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134" t="e">
-        <v>#VALUE!</v>
+      <c r="F134">
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6764,19 +4490,16 @@
         <v>0</v>
       </c>
       <c r="J134" s="3"/>
-      <c r="L134">
-        <v>131</v>
-      </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>82</v>
       </c>
-      <c r="E135" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F135" t="e">
-        <v>#VALUE!</v>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6788,8 +4511,2220 @@
         <v>0</v>
       </c>
       <c r="J135" s="3"/>
-      <c r="L135">
-        <v>132</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C1BF5C-14F9-49BF-983D-D3FCA4482B3D}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>INDEX(Source!A$4:A4135,ConvertOut!$A1*3+1)</f>
+        <v>15.1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>INDEX(Source!B$4:B4135,ConvertOut!$A1*3+1)</f>
+        <v>Професійна освіта</v>
+      </c>
+      <c r="D1" t="str">
+        <f>INDEX(Source!C$4:C4135,ConvertOut!$A1*3+1)</f>
+        <v>(Комп`ютерні технології)</v>
+      </c>
+      <c r="E1" t="str">
+        <f>INDEX(Source!D$4:D4135,ConvertOut!$A1*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F1" t="str">
+        <f>INDEX(Source!E$4:E4135,ConvertOut!$A1*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G1" t="str">
+        <f>INDEX(Source!F$4:F4135,ConvertOut!$A1*3+1)</f>
+        <v>3.Фізика або іноземна мова</v>
+      </c>
+      <c r="H1" t="str">
+        <f>INDEX(Source!G$4:G4135,ConvertOut!$A1*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I1" t="str">
+        <f>INDEX(Source!H$4:H4135,ConvertOut!$A1*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="J1" t="str">
+        <f>INDEX(Source!I$4:I4135,ConvertOut!$A1*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K1">
+        <f>INDEX(Source!J$4:J4135,ConvertOut!$A1*3+1)</f>
+        <v>118.346</v>
+      </c>
+      <c r="L1" t="str">
+        <f>INDEX(Source!K$4:K4135,ConvertOut!$A1*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A44" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>INDEX(Source!A$4:A4136,ConvertOut!$A2*3+1)</f>
+        <v>29</v>
+      </c>
+      <c r="C2" t="str">
+        <f>INDEX(Source!B$4:B4136,ConvertOut!$A2*3+1)</f>
+        <v>Інформаційна, бібліотечна та архівна справа</v>
+      </c>
+      <c r="D2">
+        <f>INDEX(Source!C$4:C4136,ConvertOut!$A2*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>INDEX(Source!D$4:D4136,ConvertOut!$A2*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F2" t="str">
+        <f>INDEX(Source!E$4:E4136,ConvertOut!$A2*3+1)</f>
+        <v xml:space="preserve">2. Історія України </v>
+      </c>
+      <c r="G2" t="str">
+        <f>INDEX(Source!F$4:F4136,ConvertOut!$A2*3+1)</f>
+        <v>3. Математика або іноземна мова</v>
+      </c>
+      <c r="H2" t="str">
+        <f>INDEX(Source!G$4:G4136,ConvertOut!$A2*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="I2" t="str">
+        <f>INDEX(Source!H$4:H4136,ConvertOut!$A2*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="J2" t="str">
+        <f>INDEX(Source!I$4:I4136,ConvertOut!$A2*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K2">
+        <f>INDEX(Source!J$4:J4136,ConvertOut!$A2*3+1)</f>
+        <v>169.89699999999999</v>
+      </c>
+      <c r="L2" t="str">
+        <f>INDEX(Source!K$4:K4136,ConvertOut!$A2*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>INDEX(Source!A$4:A4137,ConvertOut!$A3*3+1)</f>
+        <v>31</v>
+      </c>
+      <c r="C3" t="str">
+        <f>INDEX(Source!B$4:B4137,ConvertOut!$A3*3+1)</f>
+        <v>Релігієзнавство</v>
+      </c>
+      <c r="D3">
+        <f>INDEX(Source!C$4:C4137,ConvertOut!$A3*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f>INDEX(Source!D$4:D4137,ConvertOut!$A3*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F3" t="str">
+        <f>INDEX(Source!E$4:E4137,ConvertOut!$A3*3+1)</f>
+        <v>2. Історія України</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(Source!F$4:F4137,ConvertOut!$A3*3+1)</f>
+        <v>3. Математика або іноземна мова</v>
+      </c>
+      <c r="H3" t="str">
+        <f>INDEX(Source!G$4:G4137,ConvertOut!$A3*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="I3" t="str">
+        <f>INDEX(Source!H$4:H4137,ConvertOut!$A3*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J3" t="str">
+        <f>INDEX(Source!I$4:I4137,ConvertOut!$A3*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K3">
+        <f>INDEX(Source!J$4:J4137,ConvertOut!$A3*3+1)</f>
+        <v>174.7</v>
+      </c>
+      <c r="L3" t="str">
+        <f>INDEX(Source!K$4:K4137,ConvertOut!$A3*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>INDEX(Source!A$4:A4138,ConvertOut!$A4*3+1)</f>
+        <v>51</v>
+      </c>
+      <c r="C4" t="str">
+        <f>INDEX(Source!B$4:B4138,ConvertOut!$A4*3+1)</f>
+        <v>Економіка</v>
+      </c>
+      <c r="D4" t="str">
+        <f>INDEX(Source!C$4:C4138,ConvertOut!$A4*3+1)</f>
+        <v>(Бізнес аналітика та управління персоналом і економіка праці)</v>
+      </c>
+      <c r="E4" t="str">
+        <f>INDEX(Source!D$4:D4138,ConvertOut!$A4*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F4" t="str">
+        <f>INDEX(Source!E$4:E4138,ConvertOut!$A4*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(Source!F$4:F4138,ConvertOut!$A4*3+1)</f>
+        <v>3. Іноземна мова або географія</v>
+      </c>
+      <c r="H4" t="str">
+        <f>INDEX(Source!G$4:G4138,ConvertOut!$A4*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I4" t="str">
+        <f>INDEX(Source!H$4:H4138,ConvertOut!$A4*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J4" t="str">
+        <f>INDEX(Source!I$4:I4138,ConvertOut!$A4*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K4">
+        <f>INDEX(Source!J$4:J4138,ConvertOut!$A4*3+1)</f>
+        <v>181.4</v>
+      </c>
+      <c r="L4" t="str">
+        <f>INDEX(Source!K$4:K4138,ConvertOut!$A4*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>INDEX(Source!A$4:A4139,ConvertOut!$A5*3+1)</f>
+        <v>51</v>
+      </c>
+      <c r="C5" t="str">
+        <f>INDEX(Source!B$4:B4139,ConvertOut!$A5*3+1)</f>
+        <v>Економіка</v>
+      </c>
+      <c r="D5" t="str">
+        <f>INDEX(Source!C$4:C4139,ConvertOut!$A5*3+1)</f>
+        <v>(Економічна кібернетика)</v>
+      </c>
+      <c r="E5" t="str">
+        <f>INDEX(Source!D$4:D4139,ConvertOut!$A5*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F5" t="str">
+        <f>INDEX(Source!E$4:E4139,ConvertOut!$A5*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(Source!F$4:F4139,ConvertOut!$A5*3+1)</f>
+        <v>3. Іноземна мова або географія</v>
+      </c>
+      <c r="H5" t="str">
+        <f>INDEX(Source!G$4:G4139,ConvertOut!$A5*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I5" t="str">
+        <f>INDEX(Source!H$4:H4139,ConvertOut!$A5*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J5" t="str">
+        <f>INDEX(Source!I$4:I4139,ConvertOut!$A5*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K5">
+        <f>INDEX(Source!J$4:J4139,ConvertOut!$A5*3+1)</f>
+        <v>181.4</v>
+      </c>
+      <c r="L5" t="str">
+        <f>INDEX(Source!K$4:K4139,ConvertOut!$A5*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>INDEX(Source!A$4:A4140,ConvertOut!$A6*3+1)</f>
+        <v>53</v>
+      </c>
+      <c r="C6" t="str">
+        <f>INDEX(Source!B$4:B4140,ConvertOut!$A6*3+1)</f>
+        <v>Психологія</v>
+      </c>
+      <c r="D6">
+        <f>INDEX(Source!C$4:C4140,ConvertOut!$A6*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f>INDEX(Source!D$4:D4140,ConvertOut!$A6*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F6" t="str">
+        <f>INDEX(Source!E$4:E4140,ConvertOut!$A6*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(Source!F$4:F4140,ConvertOut!$A6*3+1)</f>
+        <v>3. Іноземна мова або біологія</v>
+      </c>
+      <c r="H6" t="str">
+        <f>INDEX(Source!G$4:G4140,ConvertOut!$A6*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I6" t="str">
+        <f>INDEX(Source!H$4:H4140,ConvertOut!$A6*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J6" t="str">
+        <f>INDEX(Source!I$4:I4140,ConvertOut!$A6*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K6">
+        <f>INDEX(Source!J$4:J4140,ConvertOut!$A6*3+1)</f>
+        <v>167.8</v>
+      </c>
+      <c r="L6" t="str">
+        <f>INDEX(Source!K$4:K4140,ConvertOut!$A6*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>INDEX(Source!A$4:A4141,ConvertOut!$A7*3+1)</f>
+        <v>61</v>
+      </c>
+      <c r="C7" t="str">
+        <f>INDEX(Source!B$4:B4141,ConvertOut!$A7*3+1)</f>
+        <v>Журналістика</v>
+      </c>
+      <c r="D7">
+        <f>INDEX(Source!C$4:C4141,ConvertOut!$A7*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f>INDEX(Source!D$4:D4141,ConvertOut!$A7*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F7" t="str">
+        <f>INDEX(Source!E$4:E4141,ConvertOut!$A7*3+1)</f>
+        <v>2. Історія України</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(Source!F$4:F4141,ConvertOut!$A7*3+1)</f>
+        <v>3. Математика або іноземна мова</v>
+      </c>
+      <c r="H7" t="str">
+        <f>INDEX(Source!G$4:G4141,ConvertOut!$A7*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="I7" t="str">
+        <f>INDEX(Source!H$4:H4141,ConvertOut!$A7*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J7" t="str">
+        <f>INDEX(Source!I$4:I4141,ConvertOut!$A7*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K7">
+        <f>INDEX(Source!J$4:J4141,ConvertOut!$A7*3+1)</f>
+        <v>186.25200000000001</v>
+      </c>
+      <c r="L7" t="str">
+        <f>INDEX(Source!K$4:K4141,ConvertOut!$A7*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>INDEX(Source!A$4:A4142,ConvertOut!$A8*3+1)</f>
+        <v>71</v>
+      </c>
+      <c r="C8" t="str">
+        <f>INDEX(Source!B$4:B4142,ConvertOut!$A8*3+1)</f>
+        <v xml:space="preserve">Облік і оподаткування </v>
+      </c>
+      <c r="D8">
+        <f>INDEX(Source!C$4:C4142,ConvertOut!$A8*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f>INDEX(Source!D$4:D4142,ConvertOut!$A8*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F8" t="str">
+        <f>INDEX(Source!E$4:E4142,ConvertOut!$A8*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(Source!F$4:F4142,ConvertOut!$A8*3+1)</f>
+        <v>3. Іноземна мова або географія</v>
+      </c>
+      <c r="H8" t="str">
+        <f>INDEX(Source!G$4:G4142,ConvertOut!$A8*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I8" t="str">
+        <f>INDEX(Source!H$4:H4142,ConvertOut!$A8*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J8" t="str">
+        <f>INDEX(Source!I$4:I4142,ConvertOut!$A8*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K8">
+        <f>INDEX(Source!J$4:J4142,ConvertOut!$A8*3+1)</f>
+        <v>169.72800000000001</v>
+      </c>
+      <c r="L8" t="str">
+        <f>INDEX(Source!K$4:K4142,ConvertOut!$A8*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>INDEX(Source!A$4:A4143,ConvertOut!$A9*3+1)</f>
+        <v>72</v>
+      </c>
+      <c r="C9" t="str">
+        <f>INDEX(Source!B$4:B4143,ConvertOut!$A9*3+1)</f>
+        <v xml:space="preserve">Фінанси, банківська справа та страхування </v>
+      </c>
+      <c r="D9">
+        <f>INDEX(Source!C$4:C4143,ConvertOut!$A9*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f>INDEX(Source!D$4:D4143,ConvertOut!$A9*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F9" t="str">
+        <f>INDEX(Source!E$4:E4143,ConvertOut!$A9*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(Source!F$4:F4143,ConvertOut!$A9*3+1)</f>
+        <v>3. Іноземна мова або географія</v>
+      </c>
+      <c r="H9" t="str">
+        <f>INDEX(Source!G$4:G4143,ConvertOut!$A9*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I9" t="str">
+        <f>INDEX(Source!H$4:H4143,ConvertOut!$A9*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J9" t="str">
+        <f>INDEX(Source!I$4:I4143,ConvertOut!$A9*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K9">
+        <f>INDEX(Source!J$4:J4143,ConvertOut!$A9*3+1)</f>
+        <v>172.78800000000001</v>
+      </c>
+      <c r="L9" t="str">
+        <f>INDEX(Source!K$4:K4143,ConvertOut!$A9*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>INDEX(Source!A$4:A4144,ConvertOut!$A10*3+1)</f>
+        <v>73</v>
+      </c>
+      <c r="C10" t="str">
+        <f>INDEX(Source!B$4:B4144,ConvertOut!$A10*3+1)</f>
+        <v>Менеджмент</v>
+      </c>
+      <c r="D10">
+        <f>INDEX(Source!C$4:C4144,ConvertOut!$A10*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f>INDEX(Source!D$4:D4144,ConvertOut!$A10*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F10" t="str">
+        <f>INDEX(Source!E$4:E4144,ConvertOut!$A10*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(Source!F$4:F4144,ConvertOut!$A10*3+1)</f>
+        <v>3. Іноземна мова або географія</v>
+      </c>
+      <c r="H10" t="str">
+        <f>INDEX(Source!G$4:G4144,ConvertOut!$A10*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I10" t="str">
+        <f>INDEX(Source!H$4:H4144,ConvertOut!$A10*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J10" t="str">
+        <f>INDEX(Source!I$4:I4144,ConvertOut!$A10*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K10">
+        <f>INDEX(Source!J$4:J4144,ConvertOut!$A10*3+1)</f>
+        <v>176.358</v>
+      </c>
+      <c r="L10" t="str">
+        <f>INDEX(Source!K$4:K4144,ConvertOut!$A10*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>INDEX(Source!A$4:A4145,ConvertOut!$A11*3+1)</f>
+        <v>75</v>
+      </c>
+      <c r="C11" t="str">
+        <f>INDEX(Source!B$4:B4145,ConvertOut!$A11*3+1)</f>
+        <v xml:space="preserve">Маркетинг </v>
+      </c>
+      <c r="D11">
+        <f>INDEX(Source!C$4:C4145,ConvertOut!$A11*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f>INDEX(Source!D$4:D4145,ConvertOut!$A11*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F11" t="str">
+        <f>INDEX(Source!E$4:E4145,ConvertOut!$A11*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(Source!F$4:F4145,ConvertOut!$A11*3+1)</f>
+        <v>3. Іноземна мова або географія</v>
+      </c>
+      <c r="H11" t="str">
+        <f>INDEX(Source!G$4:G4145,ConvertOut!$A11*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I11" t="str">
+        <f>INDEX(Source!H$4:H4145,ConvertOut!$A11*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J11" t="str">
+        <f>INDEX(Source!I$4:I4145,ConvertOut!$A11*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K11">
+        <f>INDEX(Source!J$4:J4145,ConvertOut!$A11*3+1)</f>
+        <v>177.88800000000001</v>
+      </c>
+      <c r="L11" t="str">
+        <f>INDEX(Source!K$4:K4145,ConvertOut!$A11*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>INDEX(Source!A$4:A4146,ConvertOut!$A12*3+1)</f>
+        <v>76</v>
+      </c>
+      <c r="C12" t="str">
+        <f>INDEX(Source!B$4:B4146,ConvertOut!$A12*3+1)</f>
+        <v xml:space="preserve">Підприємництво, торгівля та біржова діяльність </v>
+      </c>
+      <c r="D12">
+        <f>INDEX(Source!C$4:C4146,ConvertOut!$A12*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>INDEX(Source!D$4:D4146,ConvertOut!$A12*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F12" t="str">
+        <f>INDEX(Source!E$4:E4146,ConvertOut!$A12*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(Source!F$4:F4146,ConvertOut!$A12*3+1)</f>
+        <v>3. Іноземна мова або географія</v>
+      </c>
+      <c r="H12" t="str">
+        <f>INDEX(Source!G$4:G4146,ConvertOut!$A12*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I12" t="str">
+        <f>INDEX(Source!H$4:H4146,ConvertOut!$A12*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J12" t="str">
+        <f>INDEX(Source!I$4:I4146,ConvertOut!$A12*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K12">
+        <f>INDEX(Source!J$4:J4146,ConvertOut!$A12*3+1)</f>
+        <v>172</v>
+      </c>
+      <c r="L12" t="str">
+        <f>INDEX(Source!K$4:K4146,ConvertOut!$A12*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>INDEX(Source!A$4:A4147,ConvertOut!$A13*3+1)</f>
+        <v>81</v>
+      </c>
+      <c r="C13" t="str">
+        <f>INDEX(Source!B$4:B4147,ConvertOut!$A13*3+1)</f>
+        <v xml:space="preserve">Право </v>
+      </c>
+      <c r="D13">
+        <f>INDEX(Source!C$4:C4147,ConvertOut!$A13*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f>INDEX(Source!D$4:D4147,ConvertOut!$A13*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F13" t="str">
+        <f>INDEX(Source!E$4:E4147,ConvertOut!$A13*3+1)</f>
+        <v xml:space="preserve">2. Історія України </v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(Source!F$4:F4147,ConvertOut!$A13*3+1)</f>
+        <v>3. Математика або іноземна мова</v>
+      </c>
+      <c r="H13" t="str">
+        <f>INDEX(Source!G$4:G4147,ConvertOut!$A13*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="I13" t="str">
+        <f>INDEX(Source!H$4:H4147,ConvertOut!$A13*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J13" t="str">
+        <f>INDEX(Source!I$4:I4147,ConvertOut!$A13*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K13">
+        <f>INDEX(Source!J$4:J4147,ConvertOut!$A13*3+1)</f>
+        <v>182.78399999999999</v>
+      </c>
+      <c r="L13" t="str">
+        <f>INDEX(Source!K$4:K4147,ConvertOut!$A13*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>INDEX(Source!A$4:A4148,ConvertOut!$A14*3+1)</f>
+        <v>101</v>
+      </c>
+      <c r="C14" t="str">
+        <f>INDEX(Source!B$4:B4148,ConvertOut!$A14*3+1)</f>
+        <v>Екологія</v>
+      </c>
+      <c r="D14">
+        <f>INDEX(Source!C$4:C4148,ConvertOut!$A14*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f>INDEX(Source!D$4:D4148,ConvertOut!$A14*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F14" t="str">
+        <f>INDEX(Source!E$4:E4148,ConvertOut!$A14*3+1)</f>
+        <v>2. Біологія</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(Source!F$4:F4148,ConvertOut!$A14*3+1)</f>
+        <v>3. Хімія або географія</v>
+      </c>
+      <c r="H14" t="str">
+        <f>INDEX(Source!G$4:G4148,ConvertOut!$A14*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I14" t="str">
+        <f>INDEX(Source!H$4:H4148,ConvertOut!$A14*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J14" t="str">
+        <f>INDEX(Source!I$4:I4148,ConvertOut!$A14*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K14">
+        <f>INDEX(Source!J$4:J4148,ConvertOut!$A14*3+1)</f>
+        <v>159.43799999999999</v>
+      </c>
+      <c r="L14" t="str">
+        <f>INDEX(Source!K$4:K4148,ConvertOut!$A14*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>INDEX(Source!A$4:A4149,ConvertOut!$A15*3+1)</f>
+        <v>103</v>
+      </c>
+      <c r="C15" t="str">
+        <f>INDEX(Source!B$4:B4149,ConvertOut!$A15*3+1)</f>
+        <v>Науки про Землю</v>
+      </c>
+      <c r="D15" t="str">
+        <f>INDEX(Source!C$4:C4149,ConvertOut!$A15*3+1)</f>
+        <v>(Геологія)</v>
+      </c>
+      <c r="E15" t="str">
+        <f>INDEX(Source!D$4:D4149,ConvertOut!$A15*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F15" t="str">
+        <f>INDEX(Source!E$4:E4149,ConvertOut!$A15*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(Source!F$4:F4149,ConvertOut!$A15*3+1)</f>
+        <v>3. Фізика або географія</v>
+      </c>
+      <c r="H15" t="str">
+        <f>INDEX(Source!G$4:G4149,ConvertOut!$A15*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I15" t="str">
+        <f>INDEX(Source!H$4:H4149,ConvertOut!$A15*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J15" t="str">
+        <f>INDEX(Source!I$4:I4149,ConvertOut!$A15*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K15">
+        <f>INDEX(Source!J$4:J4149,ConvertOut!$A15*3+1)</f>
+        <v>112.65</v>
+      </c>
+      <c r="L15" t="str">
+        <f>INDEX(Source!K$4:K4149,ConvertOut!$A15*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>INDEX(Source!A$4:A4150,ConvertOut!$A16*3+1)</f>
+        <v>103</v>
+      </c>
+      <c r="C16" t="str">
+        <f>INDEX(Source!B$4:B4150,ConvertOut!$A16*3+1)</f>
+        <v>Науки про Землю</v>
+      </c>
+      <c r="D16" t="str">
+        <f>INDEX(Source!C$4:C4150,ConvertOut!$A16*3+1)</f>
+        <v>(Гідрологія)</v>
+      </c>
+      <c r="E16" t="str">
+        <f>INDEX(Source!D$4:D4150,ConvertOut!$A16*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F16" t="str">
+        <f>INDEX(Source!E$4:E4150,ConvertOut!$A16*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(Source!F$4:F4150,ConvertOut!$A16*3+1)</f>
+        <v>3. Фізика або географія</v>
+      </c>
+      <c r="H16" t="str">
+        <f>INDEX(Source!G$4:G4150,ConvertOut!$A16*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I16" t="str">
+        <f>INDEX(Source!H$4:H4150,ConvertOut!$A16*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J16" t="str">
+        <f>INDEX(Source!I$4:I4150,ConvertOut!$A16*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K16">
+        <f>INDEX(Source!J$4:J4150,ConvertOut!$A16*3+1)</f>
+        <v>112.65</v>
+      </c>
+      <c r="L16" t="str">
+        <f>INDEX(Source!K$4:K4150,ConvertOut!$A16*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>INDEX(Source!A$4:A4151,ConvertOut!$A17*3+1)</f>
+        <v>106</v>
+      </c>
+      <c r="C17" t="str">
+        <f>INDEX(Source!B$4:B4151,ConvertOut!$A17*3+1)</f>
+        <v>Географія</v>
+      </c>
+      <c r="D17">
+        <f>INDEX(Source!C$4:C4151,ConvertOut!$A17*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f>INDEX(Source!D$4:D4151,ConvertOut!$A17*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F17" t="str">
+        <f>INDEX(Source!E$4:E4151,ConvertOut!$A17*3+1)</f>
+        <v xml:space="preserve">2. Географія </v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(Source!F$4:F4151,ConvertOut!$A17*3+1)</f>
+        <v>3. Математика або іноземна мова</v>
+      </c>
+      <c r="H17" t="str">
+        <f>INDEX(Source!G$4:G4151,ConvertOut!$A17*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I17" t="str">
+        <f>INDEX(Source!H$4:H4151,ConvertOut!$A17*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J17" t="str">
+        <f>INDEX(Source!I$4:I4151,ConvertOut!$A17*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K17">
+        <f>INDEX(Source!J$4:J4151,ConvertOut!$A17*3+1)</f>
+        <v>184.08</v>
+      </c>
+      <c r="L17" t="str">
+        <f>INDEX(Source!K$4:K4151,ConvertOut!$A17*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>INDEX(Source!A$4:A4152,ConvertOut!$A18*3+1)</f>
+        <v>113</v>
+      </c>
+      <c r="C18" t="str">
+        <f>INDEX(Source!B$4:B4152,ConvertOut!$A18*3+1)</f>
+        <v>Прикладна математика</v>
+      </c>
+      <c r="D18">
+        <f>INDEX(Source!C$4:C4152,ConvertOut!$A18*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f>INDEX(Source!D$4:D4152,ConvertOut!$A18*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F18" t="str">
+        <f>INDEX(Source!E$4:E4152,ConvertOut!$A18*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(Source!F$4:F4152,ConvertOut!$A18*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H18" t="str">
+        <f>INDEX(Source!G$4:G4152,ConvertOut!$A18*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I18" t="str">
+        <f>INDEX(Source!H$4:H4152,ConvertOut!$A18*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="J18" t="str">
+        <f>INDEX(Source!I$4:I4152,ConvertOut!$A18*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K18">
+        <f>INDEX(Source!J$4:J4152,ConvertOut!$A18*3+1)</f>
+        <v>170.39099999999999</v>
+      </c>
+      <c r="L18" t="str">
+        <f>INDEX(Source!K$4:K4152,ConvertOut!$A18*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>INDEX(Source!A$4:A4153,ConvertOut!$A19*3+1)</f>
+        <v>121</v>
+      </c>
+      <c r="C19" t="str">
+        <f>INDEX(Source!B$4:B4153,ConvertOut!$A19*3+1)</f>
+        <v>Інженерія програмного забезпечення</v>
+      </c>
+      <c r="D19" t="str">
+        <f>INDEX(Source!C$4:C4153,ConvertOut!$A19*3+1)</f>
+        <v>(Інтернет речей)</v>
+      </c>
+      <c r="E19" t="str">
+        <f>INDEX(Source!D$4:D4153,ConvertOut!$A19*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F19" t="str">
+        <f>INDEX(Source!E$4:E4153,ConvertOut!$A19*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(Source!F$4:F4153,ConvertOut!$A19*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H19" t="str">
+        <f>INDEX(Source!G$4:G4153,ConvertOut!$A19*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I19" t="str">
+        <f>INDEX(Source!H$4:H4153,ConvertOut!$A19*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="J19" t="str">
+        <f>INDEX(Source!I$4:I4153,ConvertOut!$A19*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K19">
+        <f>INDEX(Source!J$4:J4153,ConvertOut!$A19*3+1)</f>
+        <v>178.80600000000001</v>
+      </c>
+      <c r="L19" t="str">
+        <f>INDEX(Source!K$4:K4153,ConvertOut!$A19*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f>INDEX(Source!A$4:A4154,ConvertOut!$A20*3+1)</f>
+        <v>122</v>
+      </c>
+      <c r="C20" t="str">
+        <f>INDEX(Source!B$4:B4154,ConvertOut!$A20*3+1)</f>
+        <v>Комп`ютерні науки</v>
+      </c>
+      <c r="D20">
+        <f>INDEX(Source!C$4:C4154,ConvertOut!$A20*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f>INDEX(Source!D$4:D4154,ConvertOut!$A20*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F20" t="str">
+        <f>INDEX(Source!E$4:E4154,ConvertOut!$A20*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(Source!F$4:F4154,ConvertOut!$A20*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H20" t="str">
+        <f>INDEX(Source!G$4:G4154,ConvertOut!$A20*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I20" t="str">
+        <f>INDEX(Source!H$4:H4154,ConvertOut!$A20*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="J20" t="str">
+        <f>INDEX(Source!I$4:I4154,ConvertOut!$A20*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K20">
+        <f>INDEX(Source!J$4:J4154,ConvertOut!$A20*3+1)</f>
+        <v>170.90100000000001</v>
+      </c>
+      <c r="L20" t="str">
+        <f>INDEX(Source!K$4:K4154,ConvertOut!$A20*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>INDEX(Source!A$4:A4155,ConvertOut!$A21*3+1)</f>
+        <v>123</v>
+      </c>
+      <c r="C21" t="str">
+        <f>INDEX(Source!B$4:B4155,ConvertOut!$A21*3+1)</f>
+        <v>Комп`ютерна інженерія</v>
+      </c>
+      <c r="D21">
+        <f>INDEX(Source!C$4:C4155,ConvertOut!$A21*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f>INDEX(Source!D$4:D4155,ConvertOut!$A21*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F21" t="str">
+        <f>INDEX(Source!E$4:E4155,ConvertOut!$A21*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(Source!F$4:F4155,ConvertOut!$A21*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H21" t="str">
+        <f>INDEX(Source!G$4:G4155,ConvertOut!$A21*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I21" t="str">
+        <f>INDEX(Source!H$4:H4155,ConvertOut!$A21*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="J21" t="str">
+        <f>INDEX(Source!I$4:I4155,ConvertOut!$A21*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K21">
+        <f>INDEX(Source!J$4:J4155,ConvertOut!$A21*3+1)</f>
+        <v>167.45</v>
+      </c>
+      <c r="L21" t="str">
+        <f>INDEX(Source!K$4:K4155,ConvertOut!$A21*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>INDEX(Source!A$4:A4156,ConvertOut!$A22*3+1)</f>
+        <v>126</v>
+      </c>
+      <c r="C22" t="str">
+        <f>INDEX(Source!B$4:B4156,ConvertOut!$A22*3+1)</f>
+        <v>Інформаційні системи та технології</v>
+      </c>
+      <c r="D22">
+        <f>INDEX(Source!C$4:C4156,ConvertOut!$A22*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f>INDEX(Source!D$4:D4156,ConvertOut!$A22*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F22" t="str">
+        <f>INDEX(Source!E$4:E4156,ConvertOut!$A22*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(Source!F$4:F4156,ConvertOut!$A22*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H22" t="str">
+        <f>INDEX(Source!G$4:G4156,ConvertOut!$A22*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I22" t="str">
+        <f>INDEX(Source!H$4:H4156,ConvertOut!$A22*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="J22" t="str">
+        <f>INDEX(Source!I$4:I4156,ConvertOut!$A22*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="K22">
+        <f>INDEX(Source!J$4:J4156,ConvertOut!$A22*3+1)</f>
+        <v>167.892</v>
+      </c>
+      <c r="L22" t="str">
+        <f>INDEX(Source!K$4:K4156,ConvertOut!$A22*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>INDEX(Source!A$4:A4157,ConvertOut!$A23*3+1)</f>
+        <v>141</v>
+      </c>
+      <c r="C23" t="str">
+        <f>INDEX(Source!B$4:B4157,ConvertOut!$A23*3+1)</f>
+        <v xml:space="preserve">Електроенергетика, електротехніка та електромеханіка </v>
+      </c>
+      <c r="D23" t="str">
+        <f>INDEX(Source!C$4:C4157,ConvertOut!$A23*3+1)</f>
+        <v>(Електроенергетика, електротехніка та електромеханіка; Smart -енергетика та електромобільніссть)</v>
+      </c>
+      <c r="E23" t="str">
+        <f>INDEX(Source!D$4:D4157,ConvertOut!$A23*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F23" t="str">
+        <f>INDEX(Source!E$4:E4157,ConvertOut!$A23*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(Source!F$4:F4157,ConvertOut!$A23*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H23" t="str">
+        <f>INDEX(Source!G$4:G4157,ConvertOut!$A23*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="I23" t="str">
+        <f>INDEX(Source!H$4:H4157,ConvertOut!$A23*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="J23" t="str">
+        <f>INDEX(Source!I$4:I4157,ConvertOut!$A23*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K23">
+        <f>INDEX(Source!J$4:J4157,ConvertOut!$A23*3+1)</f>
+        <v>104.61199999999999</v>
+      </c>
+      <c r="L23" t="str">
+        <f>INDEX(Source!K$4:K4157,ConvertOut!$A23*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>INDEX(Source!A$4:A4158,ConvertOut!$A24*3+1)</f>
+        <v>133</v>
+      </c>
+      <c r="C24" t="str">
+        <f>INDEX(Source!B$4:B4158,ConvertOut!$A24*3+1)</f>
+        <v>Галузеве машинобудування</v>
+      </c>
+      <c r="D24">
+        <f>INDEX(Source!C$4:C4158,ConvertOut!$A24*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>INDEX(Source!D$4:D4158,ConvertOut!$A24*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F24" t="str">
+        <f>INDEX(Source!E$4:E4158,ConvertOut!$A24*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(Source!F$4:F4158,ConvertOut!$A24*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H24" t="str">
+        <f>INDEX(Source!G$4:G4158,ConvertOut!$A24*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I24" t="str">
+        <f>INDEX(Source!H$4:H4158,ConvertOut!$A24*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J24" t="str">
+        <f>INDEX(Source!I$4:I4158,ConvertOut!$A24*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K24">
+        <f>INDEX(Source!J$4:J4158,ConvertOut!$A24*3+1)</f>
+        <v>107.40600000000001</v>
+      </c>
+      <c r="L24" t="str">
+        <f>INDEX(Source!K$4:K4158,ConvertOut!$A24*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>INDEX(Source!A$4:A4159,ConvertOut!$A25*3+1)</f>
+        <v>144</v>
+      </c>
+      <c r="C25" t="str">
+        <f>INDEX(Source!B$4:B4159,ConvertOut!$A25*3+1)</f>
+        <v>Теплоенергетика</v>
+      </c>
+      <c r="D25">
+        <f>INDEX(Source!C$4:C4159,ConvertOut!$A25*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f>INDEX(Source!D$4:D4159,ConvertOut!$A25*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F25" t="str">
+        <f>INDEX(Source!E$4:E4159,ConvertOut!$A25*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(Source!F$4:F4159,ConvertOut!$A25*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H25" t="str">
+        <f>INDEX(Source!G$4:G4159,ConvertOut!$A25*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I25" t="str">
+        <f>INDEX(Source!H$4:H4159,ConvertOut!$A25*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J25" t="str">
+        <f>INDEX(Source!I$4:I4159,ConvertOut!$A25*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K25">
+        <f>INDEX(Source!J$4:J4159,ConvertOut!$A25*3+1)</f>
+        <v>104.61199999999999</v>
+      </c>
+      <c r="L25" t="str">
+        <f>INDEX(Source!K$4:K4159,ConvertOut!$A25*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f>INDEX(Source!A$4:A4160,ConvertOut!$A26*3+1)</f>
+        <v>145</v>
+      </c>
+      <c r="C26" t="str">
+        <f>INDEX(Source!B$4:B4160,ConvertOut!$A26*3+1)</f>
+        <v xml:space="preserve">Гідроенергетика </v>
+      </c>
+      <c r="D26">
+        <f>INDEX(Source!C$4:C4160,ConvertOut!$A26*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f>INDEX(Source!D$4:D4160,ConvertOut!$A26*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F26" t="str">
+        <f>INDEX(Source!E$4:E4160,ConvertOut!$A26*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX(Source!F$4:F4160,ConvertOut!$A26*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H26" t="str">
+        <f>INDEX(Source!G$4:G4160,ConvertOut!$A26*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I26" t="str">
+        <f>INDEX(Source!H$4:H4160,ConvertOut!$A26*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J26" t="str">
+        <f>INDEX(Source!I$4:I4160,ConvertOut!$A26*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K26">
+        <f>INDEX(Source!J$4:J4160,ConvertOut!$A26*3+1)</f>
+        <v>104.61199999999999</v>
+      </c>
+      <c r="L26" t="str">
+        <f>INDEX(Source!K$4:K4160,ConvertOut!$A26*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>INDEX(Source!A$4:A4161,ConvertOut!$A27*3+1)</f>
+        <v>151</v>
+      </c>
+      <c r="C27" t="str">
+        <f>INDEX(Source!B$4:B4161,ConvertOut!$A27*3+1)</f>
+        <v>Автоматизація та комп'ютерно-інтегровані технології</v>
+      </c>
+      <c r="D27">
+        <f>INDEX(Source!C$4:C4161,ConvertOut!$A27*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>INDEX(Source!D$4:D4161,ConvertOut!$A27*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F27" t="str">
+        <f>INDEX(Source!E$4:E4161,ConvertOut!$A27*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX(Source!F$4:F4161,ConvertOut!$A27*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H27" t="str">
+        <f>INDEX(Source!G$4:G4161,ConvertOut!$A27*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="I27" t="str">
+        <f>INDEX(Source!H$4:H4161,ConvertOut!$A27*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="J27" t="str">
+        <f>INDEX(Source!I$4:I4161,ConvertOut!$A27*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K27">
+        <f>INDEX(Source!J$4:J4161,ConvertOut!$A27*3+1)</f>
+        <v>146.523</v>
+      </c>
+      <c r="L27" t="str">
+        <f>INDEX(Source!K$4:K4161,ConvertOut!$A27*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f>INDEX(Source!A$4:A4162,ConvertOut!$A28*3+1)</f>
+        <v>151</v>
+      </c>
+      <c r="C28" t="str">
+        <f>INDEX(Source!B$4:B4162,ConvertOut!$A28*3+1)</f>
+        <v>Автоматизація та комп'ютерно-інтегровані технології</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INDEX(Source!C$4:C4162,ConvertOut!$A28*3+1)</f>
+        <v>(Робототехніка та штучний інтелект)</v>
+      </c>
+      <c r="E28" t="str">
+        <f>INDEX(Source!D$4:D4162,ConvertOut!$A28*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F28" t="str">
+        <f>INDEX(Source!E$4:E4162,ConvertOut!$A28*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX(Source!F$4:F4162,ConvertOut!$A28*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H28" t="str">
+        <f>INDEX(Source!G$4:G4162,ConvertOut!$A28*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="I28" t="str">
+        <f>INDEX(Source!H$4:H4162,ConvertOut!$A28*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="J28" t="str">
+        <f>INDEX(Source!I$4:I4162,ConvertOut!$A28*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K28">
+        <f>INDEX(Source!J$4:J4162,ConvertOut!$A28*3+1)</f>
+        <v>146.523</v>
+      </c>
+      <c r="L28" t="str">
+        <f>INDEX(Source!K$4:K4162,ConvertOut!$A28*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>INDEX(Source!A$4:A4163,ConvertOut!$A29*3+1)</f>
+        <v>183</v>
+      </c>
+      <c r="C29" t="str">
+        <f>INDEX(Source!B$4:B4163,ConvertOut!$A29*3+1)</f>
+        <v>Технології захисту навколишнього середовища</v>
+      </c>
+      <c r="D29">
+        <f>INDEX(Source!C$4:C4163,ConvertOut!$A29*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f>INDEX(Source!D$4:D4163,ConvertOut!$A29*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F29" t="str">
+        <f>INDEX(Source!E$4:E4163,ConvertOut!$A29*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX(Source!F$4:F4163,ConvertOut!$A29*3+1)</f>
+        <v>3. Фізика або біологія</v>
+      </c>
+      <c r="H29" t="str">
+        <f>INDEX(Source!G$4:G4163,ConvertOut!$A29*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I29" t="str">
+        <f>INDEX(Source!H$4:H4163,ConvertOut!$A29*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J29" t="str">
+        <f>INDEX(Source!I$4:I4163,ConvertOut!$A29*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K29">
+        <f>INDEX(Source!J$4:J4163,ConvertOut!$A29*3+1)</f>
+        <v>135.61600000000001</v>
+      </c>
+      <c r="L29" t="str">
+        <f>INDEX(Source!K$4:K4163,ConvertOut!$A29*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f>INDEX(Source!A$4:A4164,ConvertOut!$A30*3+1)</f>
+        <v>184</v>
+      </c>
+      <c r="C30" t="str">
+        <f>INDEX(Source!B$4:B4164,ConvertOut!$A30*3+1)</f>
+        <v>Гірництво</v>
+      </c>
+      <c r="D30">
+        <f>INDEX(Source!C$4:C4164,ConvertOut!$A30*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f>INDEX(Source!D$4:D4164,ConvertOut!$A30*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F30" t="str">
+        <f>INDEX(Source!E$4:E4164,ConvertOut!$A30*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX(Source!F$4:F4164,ConvertOut!$A30*3+1)</f>
+        <v>3. Фізика або географія</v>
+      </c>
+      <c r="H30" t="str">
+        <f>INDEX(Source!G$4:G4164,ConvertOut!$A30*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I30" t="str">
+        <f>INDEX(Source!H$4:H4164,ConvertOut!$A30*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J30" t="str">
+        <f>INDEX(Source!I$4:I4164,ConvertOut!$A30*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K30">
+        <f>INDEX(Source!J$4:J4164,ConvertOut!$A30*3+1)</f>
+        <v>129.79</v>
+      </c>
+      <c r="L30" t="str">
+        <f>INDEX(Source!K$4:K4164,ConvertOut!$A30*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f>INDEX(Source!A$4:A4165,ConvertOut!$A31*3+1)</f>
+        <v>191</v>
+      </c>
+      <c r="C31" t="str">
+        <f>INDEX(Source!B$4:B4165,ConvertOut!$A31*3+1)</f>
+        <v xml:space="preserve">Архітектура та містобудування </v>
+      </c>
+      <c r="D31">
+        <f>INDEX(Source!C$4:C4165,ConvertOut!$A31*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f>INDEX(Source!D$4:D4165,ConvertOut!$A31*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F31" t="str">
+        <f>INDEX(Source!E$4:E4165,ConvertOut!$A31*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX(Source!F$4:F4165,ConvertOut!$A31*3+1)</f>
+        <v>3. Творчий конкурс</v>
+      </c>
+      <c r="H31" t="str">
+        <f>INDEX(Source!G$4:G4165,ConvertOut!$A31*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="I31" t="str">
+        <f>INDEX(Source!H$4:H4165,ConvertOut!$A31*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="J31" t="str">
+        <f>INDEX(Source!I$4:I4165,ConvertOut!$A31*3+1)</f>
+        <v>0,5</v>
+      </c>
+      <c r="K31">
+        <f>INDEX(Source!J$4:J4165,ConvertOut!$A31*3+1)</f>
+        <v>179.41800000000001</v>
+      </c>
+      <c r="L31" t="str">
+        <f>INDEX(Source!K$4:K4165,ConvertOut!$A31*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>INDEX(Source!A$4:A4166,ConvertOut!$A32*3+1)</f>
+        <v>192</v>
+      </c>
+      <c r="C32" t="str">
+        <f>INDEX(Source!B$4:B4166,ConvertOut!$A32*3+1)</f>
+        <v>Будівництво та цивільна інженерія</v>
+      </c>
+      <c r="D32">
+        <f>INDEX(Source!C$4:C4166,ConvertOut!$A32*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f>INDEX(Source!D$4:D4166,ConvertOut!$A32*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F32" t="str">
+        <f>INDEX(Source!E$4:E4166,ConvertOut!$A32*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX(Source!F$4:F4166,ConvertOut!$A32*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H32" t="str">
+        <f>INDEX(Source!G$4:G4166,ConvertOut!$A32*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I32" t="str">
+        <f>INDEX(Source!H$4:H4166,ConvertOut!$A32*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J32" t="str">
+        <f>INDEX(Source!I$4:I4166,ConvertOut!$A32*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K32">
+        <f>INDEX(Source!J$4:J4166,ConvertOut!$A32*3+1)</f>
+        <v>105.913</v>
+      </c>
+      <c r="L32" t="str">
+        <f>INDEX(Source!K$4:K4166,ConvertOut!$A32*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f>INDEX(Source!A$4:A4167,ConvertOut!$A33*3+1)</f>
+        <v>193</v>
+      </c>
+      <c r="C33" t="str">
+        <f>INDEX(Source!B$4:B4167,ConvertOut!$A33*3+1)</f>
+        <v>Геодезія та землеустрій</v>
+      </c>
+      <c r="D33">
+        <f>INDEX(Source!C$4:C4167,ConvertOut!$A33*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f>INDEX(Source!D$4:D4167,ConvertOut!$A33*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F33" t="str">
+        <f>INDEX(Source!E$4:E4167,ConvertOut!$A33*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX(Source!F$4:F4167,ConvertOut!$A33*3+1)</f>
+        <v>3. Географія або Історія України</v>
+      </c>
+      <c r="H33" t="str">
+        <f>INDEX(Source!G$4:G4167,ConvertOut!$A33*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I33" t="str">
+        <f>INDEX(Source!H$4:H4167,ConvertOut!$A33*3+1)</f>
+        <v>0,2</v>
+      </c>
+      <c r="J33" t="str">
+        <f>INDEX(Source!I$4:I4167,ConvertOut!$A33*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="K33">
+        <f>INDEX(Source!J$4:J4167,ConvertOut!$A33*3+1)</f>
+        <v>161.626</v>
+      </c>
+      <c r="L33" t="str">
+        <f>INDEX(Source!K$4:K4167,ConvertOut!$A33*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f>INDEX(Source!A$4:A4168,ConvertOut!$A34*3+1)</f>
+        <v>194</v>
+      </c>
+      <c r="C34" t="str">
+        <f>INDEX(Source!B$4:B4168,ConvertOut!$A34*3+1)</f>
+        <v>Гідротехнічне будівництво, водна інженерія та водні технології</v>
+      </c>
+      <c r="D34">
+        <f>INDEX(Source!C$4:C4168,ConvertOut!$A34*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f>INDEX(Source!D$4:D4168,ConvertOut!$A34*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F34" t="str">
+        <f>INDEX(Source!E$4:E4168,ConvertOut!$A34*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX(Source!F$4:F4168,ConvertOut!$A34*3+1)</f>
+        <v>3. Фізика або географія</v>
+      </c>
+      <c r="H34" t="str">
+        <f>INDEX(Source!G$4:G4168,ConvertOut!$A34*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I34" t="str">
+        <f>INDEX(Source!H$4:H4168,ConvertOut!$A34*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J34" t="str">
+        <f>INDEX(Source!I$4:I4168,ConvertOut!$A34*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K34">
+        <f>INDEX(Source!J$4:J4168,ConvertOut!$A34*3+1)</f>
+        <v>150.96199999999999</v>
+      </c>
+      <c r="L34" t="str">
+        <f>INDEX(Source!K$4:K4168,ConvertOut!$A34*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f>INDEX(Source!A$4:A4169,ConvertOut!$A35*3+1)</f>
+        <v>201</v>
+      </c>
+      <c r="C35" t="str">
+        <f>INDEX(Source!B$4:B4169,ConvertOut!$A35*3+1)</f>
+        <v>Агрономія</v>
+      </c>
+      <c r="D35">
+        <f>INDEX(Source!C$4:C4169,ConvertOut!$A35*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f>INDEX(Source!D$4:D4169,ConvertOut!$A35*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F35" t="str">
+        <f>INDEX(Source!E$4:E4169,ConvertOut!$A35*3+1)</f>
+        <v xml:space="preserve">2. Біологія </v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX(Source!F$4:F4169,ConvertOut!$A35*3+1)</f>
+        <v>3. Хімія або математика</v>
+      </c>
+      <c r="H35" t="str">
+        <f>INDEX(Source!G$4:G4169,ConvertOut!$A35*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I35" t="str">
+        <f>INDEX(Source!H$4:H4169,ConvertOut!$A35*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J35" t="str">
+        <f>INDEX(Source!I$4:I4169,ConvertOut!$A35*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K35">
+        <f>INDEX(Source!J$4:J4169,ConvertOut!$A35*3+1)</f>
+        <v>135.93</v>
+      </c>
+      <c r="L35" t="str">
+        <f>INDEX(Source!K$4:K4169,ConvertOut!$A35*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f>INDEX(Source!A$4:A4170,ConvertOut!$A36*3+1)</f>
+        <v>207</v>
+      </c>
+      <c r="C36" t="str">
+        <f>INDEX(Source!B$4:B4170,ConvertOut!$A36*3+1)</f>
+        <v>Водні біоресурси та аквакультура</v>
+      </c>
+      <c r="D36">
+        <f>INDEX(Source!C$4:C4170,ConvertOut!$A36*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f>INDEX(Source!D$4:D4170,ConvertOut!$A36*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F36" t="str">
+        <f>INDEX(Source!E$4:E4170,ConvertOut!$A36*3+1)</f>
+        <v xml:space="preserve">2. Біологія </v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX(Source!F$4:F4170,ConvertOut!$A36*3+1)</f>
+        <v>3. Хімія або математика</v>
+      </c>
+      <c r="H36" t="str">
+        <f>INDEX(Source!G$4:G4170,ConvertOut!$A36*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="I36" t="str">
+        <f>INDEX(Source!H$4:H4170,ConvertOut!$A36*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="J36" t="str">
+        <f>INDEX(Source!I$4:I4170,ConvertOut!$A36*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K36">
+        <f>INDEX(Source!J$4:J4170,ConvertOut!$A36*3+1)</f>
+        <v>138.5</v>
+      </c>
+      <c r="L36" t="str">
+        <f>INDEX(Source!K$4:K4170,ConvertOut!$A36*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f>INDEX(Source!A$4:A4171,ConvertOut!$A37*3+1)</f>
+        <v>208</v>
+      </c>
+      <c r="C37" t="str">
+        <f>INDEX(Source!B$4:B4171,ConvertOut!$A37*3+1)</f>
+        <v>Агроінженерія</v>
+      </c>
+      <c r="D37">
+        <f>INDEX(Source!C$4:C4171,ConvertOut!$A37*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f>INDEX(Source!D$4:D4171,ConvertOut!$A37*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F37" t="str">
+        <f>INDEX(Source!E$4:E4171,ConvertOut!$A37*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX(Source!F$4:F4171,ConvertOut!$A37*3+1)</f>
+        <v>3. Фізика або географія</v>
+      </c>
+      <c r="H37" t="str">
+        <f>INDEX(Source!G$4:G4171,ConvertOut!$A37*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I37" t="str">
+        <f>INDEX(Source!H$4:H4171,ConvertOut!$A37*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J37" t="str">
+        <f>INDEX(Source!I$4:I4171,ConvertOut!$A37*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K37">
+        <f>INDEX(Source!J$4:J4171,ConvertOut!$A37*3+1)</f>
+        <v>108.599</v>
+      </c>
+      <c r="L37" t="str">
+        <f>INDEX(Source!K$4:K4171,ConvertOut!$A37*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f>INDEX(Source!A$4:A4172,ConvertOut!$A38*3+1)</f>
+        <v>227</v>
+      </c>
+      <c r="C38" t="str">
+        <f>INDEX(Source!B$4:B4172,ConvertOut!$A38*3+1)</f>
+        <v>Фізична терапія, ерготерапія</v>
+      </c>
+      <c r="D38">
+        <f>INDEX(Source!C$4:C4172,ConvertOut!$A38*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f>INDEX(Source!D$4:D4172,ConvertOut!$A38*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F38" t="str">
+        <f>INDEX(Source!E$4:E4172,ConvertOut!$A38*3+1)</f>
+        <v>2. Біологія або хімія</v>
+      </c>
+      <c r="G38" t="str">
+        <f>INDEX(Source!F$4:F4172,ConvertOut!$A38*3+1)</f>
+        <v>3. Фізика або математика</v>
+      </c>
+      <c r="H38" t="str">
+        <f>INDEX(Source!G$4:G4172,ConvertOut!$A38*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I38" t="str">
+        <f>INDEX(Source!H$4:H4172,ConvertOut!$A38*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="J38" t="str">
+        <f>INDEX(Source!I$4:I4172,ConvertOut!$A38*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K38">
+        <f>INDEX(Source!J$4:J4172,ConvertOut!$A38*3+1)</f>
+        <v>150.96</v>
+      </c>
+      <c r="L38" t="str">
+        <f>INDEX(Source!K$4:K4172,ConvertOut!$A38*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>INDEX(Source!A$4:A4173,ConvertOut!$A39*3+1)</f>
+        <v>242</v>
+      </c>
+      <c r="C39" t="str">
+        <f>INDEX(Source!B$4:B4173,ConvertOut!$A39*3+1)</f>
+        <v>Туризм</v>
+      </c>
+      <c r="D39">
+        <f>INDEX(Source!C$4:C4173,ConvertOut!$A39*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f>INDEX(Source!D$4:D4173,ConvertOut!$A39*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F39" t="str">
+        <f>INDEX(Source!E$4:E4173,ConvertOut!$A39*3+1)</f>
+        <v xml:space="preserve">2. Іноземна мова </v>
+      </c>
+      <c r="G39" t="str">
+        <f>INDEX(Source!F$4:F4173,ConvertOut!$A39*3+1)</f>
+        <v>3. Географія або математика</v>
+      </c>
+      <c r="H39" t="str">
+        <f>INDEX(Source!G$4:G4173,ConvertOut!$A39*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="I39" t="str">
+        <f>INDEX(Source!H$4:H4173,ConvertOut!$A39*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J39" t="str">
+        <f>INDEX(Source!I$4:I4173,ConvertOut!$A39*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="K39">
+        <f>INDEX(Source!J$4:J4173,ConvertOut!$A39*3+1)</f>
+        <v>175.542</v>
+      </c>
+      <c r="L39" t="str">
+        <f>INDEX(Source!K$4:K4173,ConvertOut!$A39*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f>INDEX(Source!A$4:A4174,ConvertOut!$A40*3+1)</f>
+        <v>263</v>
+      </c>
+      <c r="C40" t="str">
+        <f>INDEX(Source!B$4:B4174,ConvertOut!$A40*3+1)</f>
+        <v>Цивільна безпека</v>
+      </c>
+      <c r="D40">
+        <f>INDEX(Source!C$4:C4174,ConvertOut!$A40*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f>INDEX(Source!D$4:D4174,ConvertOut!$A40*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F40" t="str">
+        <f>INDEX(Source!E$4:E4174,ConvertOut!$A40*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G40" t="str">
+        <f>INDEX(Source!F$4:F4174,ConvertOut!$A40*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H40" t="str">
+        <f>INDEX(Source!G$4:G4174,ConvertOut!$A40*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I40" t="str">
+        <f>INDEX(Source!H$4:H4174,ConvertOut!$A40*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J40" t="str">
+        <f>INDEX(Source!I$4:I4174,ConvertOut!$A40*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K40">
+        <f>INDEX(Source!J$4:J4174,ConvertOut!$A40*3+1)</f>
+        <v>152.72</v>
+      </c>
+      <c r="L40" t="str">
+        <f>INDEX(Source!K$4:K4174,ConvertOut!$A40*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f>INDEX(Source!A$4:A4175,ConvertOut!$A41*3+1)</f>
+        <v>274</v>
+      </c>
+      <c r="C41" t="str">
+        <f>INDEX(Source!B$4:B4175,ConvertOut!$A41*3+1)</f>
+        <v>Автомобільний транспорт</v>
+      </c>
+      <c r="D41">
+        <f>INDEX(Source!C$4:C4175,ConvertOut!$A41*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f>INDEX(Source!D$4:D4175,ConvertOut!$A41*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F41" t="str">
+        <f>INDEX(Source!E$4:E4175,ConvertOut!$A41*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G41" t="str">
+        <f>INDEX(Source!F$4:F4175,ConvertOut!$A41*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H41" t="str">
+        <f>INDEX(Source!G$4:G4175,ConvertOut!$A41*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I41" t="str">
+        <f>INDEX(Source!H$4:H4175,ConvertOut!$A41*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J41" t="str">
+        <f>INDEX(Source!I$4:I4175,ConvertOut!$A41*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K41">
+        <f>INDEX(Source!J$4:J4175,ConvertOut!$A41*3+1)</f>
+        <v>132.49799999999999</v>
+      </c>
+      <c r="L41" t="str">
+        <f>INDEX(Source!K$4:K4175,ConvertOut!$A41*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f>INDEX(Source!A$4:A4176,ConvertOut!$A42*3+1)</f>
+        <v>275.02999999999997</v>
+      </c>
+      <c r="C42" t="str">
+        <f>INDEX(Source!B$4:B4176,ConvertOut!$A42*3+1)</f>
+        <v>Транспортні технології</v>
+      </c>
+      <c r="D42" t="str">
+        <f>INDEX(Source!C$4:C4176,ConvertOut!$A42*3+1)</f>
+        <v>(на автомобільному транспорті)</v>
+      </c>
+      <c r="E42" t="str">
+        <f>INDEX(Source!D$4:D4176,ConvertOut!$A42*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F42" t="str">
+        <f>INDEX(Source!E$4:E4176,ConvertOut!$A42*3+1)</f>
+        <v>2. Математика</v>
+      </c>
+      <c r="G42" t="str">
+        <f>INDEX(Source!F$4:F4176,ConvertOut!$A42*3+1)</f>
+        <v>3. Фізика або іноземна мова</v>
+      </c>
+      <c r="H42" t="str">
+        <f>INDEX(Source!G$4:G4176,ConvertOut!$A42*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="I42" t="str">
+        <f>INDEX(Source!H$4:H4176,ConvertOut!$A42*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J42" t="str">
+        <f>INDEX(Source!I$4:I4176,ConvertOut!$A42*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="K42">
+        <f>INDEX(Source!J$4:J4176,ConvertOut!$A42*3+1)</f>
+        <v>134.5</v>
+      </c>
+      <c r="L42" t="str">
+        <f>INDEX(Source!K$4:K4176,ConvertOut!$A42*3+1)</f>
+        <v>1,02 або 1.00</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f>INDEX(Source!A$4:A4177,ConvertOut!$A43*3+1)</f>
+        <v>281</v>
+      </c>
+      <c r="C43" t="str">
+        <f>INDEX(Source!B$4:B4177,ConvertOut!$A43*3+1)</f>
+        <v>Публічне управління та адміністрування</v>
+      </c>
+      <c r="D43">
+        <f>INDEX(Source!C$4:C4177,ConvertOut!$A43*3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f>INDEX(Source!D$4:D4177,ConvertOut!$A43*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F43" t="str">
+        <f>INDEX(Source!E$4:E4177,ConvertOut!$A43*3+1)</f>
+        <v xml:space="preserve">2. Математика </v>
+      </c>
+      <c r="G43" t="str">
+        <f>INDEX(Source!F$4:F4177,ConvertOut!$A43*3+1)</f>
+        <v>3. Іноземна мова або історія України</v>
+      </c>
+      <c r="H43" t="str">
+        <f>INDEX(Source!G$4:G4177,ConvertOut!$A43*3+1)</f>
+        <v>0,4</v>
+      </c>
+      <c r="I43" t="str">
+        <f>INDEX(Source!H$4:H4177,ConvertOut!$A43*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="J43" t="str">
+        <f>INDEX(Source!I$4:I4177,ConvertOut!$A43*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K43">
+        <f>INDEX(Source!J$4:J4177,ConvertOut!$A43*3+1)</f>
+        <v>182.274</v>
+      </c>
+      <c r="L43" t="str">
+        <f>INDEX(Source!K$4:K4177,ConvertOut!$A43*3+1)</f>
+        <v>1,00</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f>INDEX(Source!A$4:A4178,ConvertOut!$A44*3+1)</f>
+        <v>292</v>
+      </c>
+      <c r="C44" t="str">
+        <f>INDEX(Source!B$4:B4178,ConvertOut!$A44*3+1)</f>
+        <v xml:space="preserve">Міжнародні економічні відносини </v>
+      </c>
+      <c r="D44" t="str">
+        <f>INDEX(Source!C$4:C4178,ConvertOut!$A44*3+1)</f>
+        <v>(Міжнародний бізнес)</v>
+      </c>
+      <c r="E44" t="str">
+        <f>INDEX(Source!D$4:D4178,ConvertOut!$A44*3+1)</f>
+        <v xml:space="preserve">1. Українська мова та література </v>
+      </c>
+      <c r="F44" t="str">
+        <f>INDEX(Source!E$4:E4178,ConvertOut!$A44*3+1)</f>
+        <v xml:space="preserve">2. Іноземна мова </v>
+      </c>
+      <c r="G44" t="str">
+        <f>INDEX(Source!F$4:F4178,ConvertOut!$A44*3+1)</f>
+        <v>3. Географія або математика</v>
+      </c>
+      <c r="H44" t="str">
+        <f>INDEX(Source!G$4:G4178,ConvertOut!$A44*3+1)</f>
+        <v>0,35</v>
+      </c>
+      <c r="I44" t="str">
+        <f>INDEX(Source!H$4:H4178,ConvertOut!$A44*3+1)</f>
+        <v>0,3</v>
+      </c>
+      <c r="J44" t="str">
+        <f>INDEX(Source!I$4:I4178,ConvertOut!$A44*3+1)</f>
+        <v>0,25</v>
+      </c>
+      <c r="K44">
+        <f>INDEX(Source!J$4:J4178,ConvertOut!$A44*3+1)</f>
+        <v>186.71100000000001</v>
+      </c>
+      <c r="L44" t="str">
+        <f>INDEX(Source!K$4:K4178,ConvertOut!$A44*3+1)</f>
+        <v>1,00</v>
       </c>
     </row>
   </sheetData>
